--- a/eg_data/NHANES/PF/Waist2/Waist/Waist.xlsx
+++ b/eg_data/NHANES/PF/Waist2/Waist/Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist2\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6BEDBB-69B9-43C1-84BB-DD2464DC8354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE1644-E72C-4492-B0F4-71DE77285F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="-2745" windowWidth="20280" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32250" yWindow="-3135" windowWidth="16965" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="58">
   <si>
     <t>Plain means</t>
   </si>
@@ -125,9 +125,6 @@
     <t>p-value</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI ~ DivGroup + Age + Gender + Ethnicity + Income + Education + kcal*  </t>
-  </si>
-  <si>
     <t>age_3</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Remove Income and KCAL because they didn’t have an effect:</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI ~ DivGroup + Age + Gender + Ethnicity + Education   </t>
-  </si>
-  <si>
     <t>Remove Asians because they have low BMI than other races…</t>
   </si>
   <si>
@@ -195,6 +189,27 @@
   </si>
   <si>
     <t xml:space="preserve">WAIST ~ DivGroup + Age + Gender + Ethnicity + Income + Education + kcal*  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waist ~ DivGroup + Age + Gender + Ethnicity + Education   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waist ~ DivGroup + Age + Gender + Ethnicity + Income + Education + kcal*  </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>F-value</t>
   </si>
 </sst>
 </file>
@@ -323,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,6 +382,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1874,7 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1861,10 +1884,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1911,15 +1934,15 @@
     <row r="8" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2033,7 +2056,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>37405.2101153029</v>
@@ -2073,7 +2096,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>5236.4909760849596</v>
@@ -2113,7 +2136,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>33190.242842890701</v>
@@ -2153,7 +2176,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>723.88025343953598</v>
@@ -2179,14 +2202,14 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="37">
         <f t="shared" si="1"/>
         <v>0.253</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>4510.0691460237103</v>
@@ -2245,7 +2268,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="37">
         <f t="shared" si="1"/>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -2281,7 +2304,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="11"/>
     </row>
@@ -2363,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="13"/>
@@ -2431,19 +2454,19 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
         <v>35</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>36</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>37</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>38</v>
-      </c>
-      <c r="N27" t="s">
-        <v>39</v>
       </c>
       <c r="O27" t="s">
         <v>19</v>
@@ -2728,7 +2751,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -3100,28 +3123,28 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3138,17 +3161,18 @@
       <c r="K52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -3168,20 +3192,23 @@
         <f>B53</f>
         <v>(Intercept)</v>
       </c>
-      <c r="L53" s="2">
-        <f t="shared" ref="L53:L59" si="21">C53</f>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" ref="M53:N59" si="21">C53</f>
         <v>2066708.1871185401</v>
       </c>
-      <c r="M53">
-        <f t="shared" ref="M53:M59" si="22">D53</f>
+      <c r="N53">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="N53" s="16" t="str">
-        <f t="shared" ref="N53:N58" si="23">IF(F53&lt;0.0001,"&lt;0.0001",IF(F53&lt;0.001,"&lt;0.001",IF(F53&lt;0.01,"&lt;0.01",ROUND(F53,3))))</f>
+      <c r="O53" s="16" t="str">
+        <f t="shared" ref="O53:O58" si="22">IF(F53&lt;0.0001,"&lt;0.0001",IF(F53&lt;0.001,"&lt;0.001",IF(F53&lt;0.01,"&lt;0.01",ROUND(F53,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>1</v>
       </c>
@@ -3198,25 +3225,28 @@
         <v>1.87575215475017E-3</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" ref="K54:K59" si="24">B54</f>
+        <f t="shared" ref="K54:K59" si="23">B54</f>
         <v>DivGroup</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
         <f t="shared" si="21"/>
         <v>3937.0837355768299</v>
       </c>
-      <c r="M54">
+      <c r="N54">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="O54" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="N54" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>&lt;0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2">
         <v>36248.631963860898</v>
@@ -3231,25 +3261,28 @@
         <v>4.3535776099358E-30</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>age_3</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" t="s">
+        <v>53</v>
+      </c>
+      <c r="M55" s="2">
         <f t="shared" si="21"/>
         <v>36248.631963860898</v>
       </c>
-      <c r="M55">
+      <c r="N55">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="O55" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="N55" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
         <v>7895.6789732949101</v>
@@ -3264,25 +3297,28 @@
         <v>4.6053495899892202E-8</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>RIAGENDR</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="2">
         <f t="shared" si="21"/>
         <v>7895.6789732949101</v>
       </c>
-      <c r="M56">
+      <c r="N56">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2">
         <v>34810.075077851099</v>
@@ -3297,25 +3333,28 @@
         <v>3.9394425467518198E-27</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>eth_5</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="2">
         <f t="shared" si="21"/>
         <v>34810.075077851099</v>
       </c>
-      <c r="M57">
+      <c r="N57">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="O57" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="N57" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2">
         <v>5365.87679338013</v>
@@ -3330,23 +3369,26 @@
         <v>3.8435941443731302E-5</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>edu</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="2">
         <f t="shared" si="21"/>
         <v>5365.87679338013</v>
       </c>
-      <c r="M58">
+      <c r="N58">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="O58" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="N58" s="16" t="str">
-        <f t="shared" si="23"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -3362,26 +3404,27 @@
       <c r="F59" t="s">
         <v>26</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="24"/>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="23"/>
         <v>Residuals</v>
       </c>
-      <c r="L59" s="2">
-        <f>C59</f>
+      <c r="L59" s="1"/>
+      <c r="M59" s="35">
+        <f t="shared" si="21"/>
         <v>963983.23049574695</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="22"/>
+      <c r="N59" s="1">
+        <f t="shared" si="21"/>
         <v>3663</v>
       </c>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="36"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="L60" s="2"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3389,13 +3432,13 @@
       <c r="F61" s="1"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="13"/>
@@ -3541,19 +3584,19 @@
         <v>12</v>
       </c>
       <c r="J68" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" t="s">
         <v>35</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>36</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>37</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>38</v>
-      </c>
-      <c r="N68" t="s">
-        <v>39</v>
       </c>
       <c r="O68" t="s">
         <v>19</v>
@@ -3675,7 +3718,7 @@
         <v>6.3364755229474898</v>
       </c>
       <c r="H71" s="29">
-        <f t="shared" ref="H71:H74" si="25">O71</f>
+        <f t="shared" ref="H71:H74" si="24">O71</f>
         <v>8.3466634764817204E-4</v>
       </c>
       <c r="J71" t="s">
@@ -3721,7 +3764,7 @@
         <v>2.98131109756909</v>
       </c>
       <c r="H72" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.99755955298190102</v>
       </c>
       <c r="J72" t="s">
@@ -3767,7 +3810,7 @@
         <v>6.2010060922264003</v>
       </c>
       <c r="H73" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3.3212930892874098E-3</v>
       </c>
       <c r="J73" t="s">
@@ -3813,7 +3856,7 @@
         <v>6.6194319812005098</v>
       </c>
       <c r="H74" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3.8555544950638801E-2</v>
       </c>
       <c r="J74" t="s">
@@ -3838,7 +3881,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -3880,159 +3923,159 @@
         <v>DivNA</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" ref="B78:G78" si="26">B65</f>
+        <f t="shared" ref="B78:G78" si="25">B65</f>
         <v>.</v>
       </c>
       <c r="C78" s="6">
+        <f t="shared" si="25"/>
+        <v>99.875694368646606</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="25"/>
+        <v>0.47991440164053001</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="25"/>
+        <v>3663</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="25"/>
+        <v>98.527741583082502</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="25"/>
+        <v>101.22364715421099</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" ref="A79:G79" si="26">A66</f>
+        <v>Div0</v>
+      </c>
+      <c r="B79" t="str">
         <f t="shared" si="26"/>
-        <v>99.875694368646606</v>
-      </c>
-      <c r="D78" s="6">
+        <v>.</v>
+      </c>
+      <c r="C79" s="6">
         <f t="shared" si="26"/>
-        <v>0.47991440164053001</v>
-      </c>
-      <c r="E78">
+        <v>99.643543747064697</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" si="26"/>
+        <v>0.56638041650538695</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="26"/>
         <v>3663</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <f t="shared" si="26"/>
-        <v>98.527741583082502</v>
-      </c>
-      <c r="G78" s="6">
+        <v>98.0527307656088</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="26"/>
-        <v>101.22364715421099</v>
-      </c>
-      <c r="H78" t="s">
+        <v>101.23435672852101</v>
+      </c>
+      <c r="H79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f t="shared" ref="A79:G79" si="27">A66</f>
-        <v>Div0</v>
-      </c>
-      <c r="B79" t="str">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" ref="A80:G80" si="27">A67</f>
+        <v>Div1</v>
+      </c>
+      <c r="B80" t="str">
         <f t="shared" si="27"/>
         <v>.</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C80" s="6">
         <f t="shared" si="27"/>
-        <v>99.643543747064697</v>
-      </c>
-      <c r="D79" s="6">
+        <v>99.454416065287006</v>
+      </c>
+      <c r="D80" s="6">
         <f t="shared" si="27"/>
-        <v>0.56638041650538695</v>
-      </c>
-      <c r="E79">
+        <v>0.90630709568125201</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="27"/>
         <v>3663</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <f t="shared" si="27"/>
-        <v>98.0527307656088</v>
-      </c>
-      <c r="G79" s="6">
+        <v>96.908838833130702</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="27"/>
-        <v>101.23435672852101</v>
-      </c>
-      <c r="H79" t="s">
+        <v>101.999993297443</v>
+      </c>
+      <c r="H80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f t="shared" ref="A80:G80" si="28">A67</f>
-        <v>Div1</v>
-      </c>
-      <c r="B80" t="str">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" ref="A81:G81" si="28">A68</f>
+        <v>Div2</v>
+      </c>
+      <c r="B81" t="str">
         <f t="shared" si="28"/>
         <v>.</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C81" s="6">
         <f t="shared" si="28"/>
-        <v>99.454416065287006</v>
-      </c>
-      <c r="D80" s="6">
+        <v>96.230796288310302</v>
+      </c>
+      <c r="D81" s="6">
         <f t="shared" si="28"/>
-        <v>0.90630709568125201</v>
-      </c>
-      <c r="E80">
+        <v>0.91135381831185103</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="28"/>
         <v>3663</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <f t="shared" si="28"/>
-        <v>96.908838833130702</v>
-      </c>
-      <c r="G80" s="6">
+        <v>93.671044145368697</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="28"/>
-        <v>101.999993297443</v>
-      </c>
-      <c r="H80" t="s">
+        <v>98.790548431252006</v>
+      </c>
+      <c r="H81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f t="shared" ref="A81:G81" si="29">A68</f>
-        <v>Div2</v>
-      </c>
-      <c r="B81" t="str">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f t="shared" ref="A82:G82" si="29">A69</f>
+        <v>.</v>
+      </c>
+      <c r="B82" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>.</v>
-      </c>
-      <c r="C81" s="6">
+        <v>DivNA - Div0</v>
+      </c>
+      <c r="C82" s="5">
         <f t="shared" si="29"/>
-        <v>96.230796288310302</v>
-      </c>
-      <c r="D81" s="6">
+        <v>0.232150621581868</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="29"/>
-        <v>0.91135381831185103</v>
-      </c>
-      <c r="E81">
+        <v>0.62281512915702997</v>
+      </c>
+      <c r="E82" s="4">
         <f t="shared" si="29"/>
         <v>3663</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="5">
         <f t="shared" si="29"/>
-        <v>93.671044145368697</v>
-      </c>
-      <c r="G81" s="6">
+        <v>-1.51717256057073</v>
+      </c>
+      <c r="G82" s="5">
         <f t="shared" si="29"/>
-        <v>98.790548431252006</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str">
-        <f t="shared" ref="A82:G82" si="30">A69</f>
-        <v>.</v>
-      </c>
-      <c r="B82" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>DivNA - Div0</v>
-      </c>
-      <c r="C82" s="5">
-        <f t="shared" si="30"/>
-        <v>0.232150621581868</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="30"/>
-        <v>0.62281512915702997</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="30"/>
-        <v>3663</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" si="30"/>
-        <v>-1.51717256057073</v>
-      </c>
-      <c r="G82" s="5">
-        <f t="shared" si="30"/>
         <v>1.9814738037344699</v>
       </c>
       <c r="H82" s="17">
@@ -4042,205 +4085,205 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" ref="A83:G83" si="31">A70</f>
+        <f t="shared" ref="A83:G83" si="30">A70</f>
         <v>.</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>DivNA - Div1</v>
       </c>
       <c r="C83" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.42127830335959499</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.95814814449029995</v>
       </c>
       <c r="E83">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3663</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>-2.2699067411687301</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3.1124633478879198</v>
       </c>
       <c r="H83" s="16">
-        <f t="shared" ref="H83:H87" si="32">IF(H70&lt;0.0001,"&lt;0.0001",IF(H70&lt;0.001,"&lt;0.001",IF(H70&lt;0.01,"&lt;0.01",ROUND(H70,3))))</f>
+        <f t="shared" ref="H83:H87" si="31">IF(H70&lt;0.0001,"&lt;0.0001",IF(H70&lt;0.001,"&lt;0.001",IF(H70&lt;0.01,"&lt;0.01",ROUND(H70,3))))</f>
         <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" ref="A84:G84" si="33">A71</f>
+        <f t="shared" ref="A84:G84" si="32">A71</f>
         <v>.</v>
       </c>
       <c r="B84" t="str">
+        <f t="shared" si="32"/>
+        <v>DivNA - Div2</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="32"/>
+        <v>3.6448980803362598</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="32"/>
+        <v>0.95828785078653</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="32"/>
+        <v>3663</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="32"/>
+        <v>0.95332063772501996</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="32"/>
+        <v>6.3364755229474898</v>
+      </c>
+      <c r="H84" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" ref="A85:G85" si="33">A72</f>
+        <v>.</v>
+      </c>
+      <c r="B85" t="str">
         <f t="shared" si="33"/>
-        <v>DivNA - Div2</v>
-      </c>
-      <c r="C84" s="6">
+        <v>Div0 - Div1</v>
+      </c>
+      <c r="C85" s="6">
         <f t="shared" si="33"/>
-        <v>3.6448980803362598</v>
-      </c>
-      <c r="D84" s="6">
+        <v>0.18912768177772701</v>
+      </c>
+      <c r="D85" s="6">
         <f t="shared" si="33"/>
-        <v>0.95828785078653</v>
-      </c>
-      <c r="E84">
+        <v>0.99410680226412196</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="33"/>
         <v>3663</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <f t="shared" si="33"/>
-        <v>0.95332063772501996</v>
-      </c>
-      <c r="G84" s="6">
+        <v>-2.60305573401364</v>
+      </c>
+      <c r="G85" s="6">
         <f t="shared" si="33"/>
-        <v>6.3364755229474898</v>
-      </c>
-      <c r="H84" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f t="shared" ref="A85:G85" si="34">A72</f>
+        <v>2.98131109756909</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" si="31"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" ref="A86:G86" si="34">A73</f>
         <v>.</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B86" t="str">
         <f t="shared" si="34"/>
-        <v>Div0 - Div1</v>
-      </c>
-      <c r="C85" s="6">
+        <v>Div0 - Div2</v>
+      </c>
+      <c r="C86" s="6">
         <f t="shared" si="34"/>
-        <v>0.18912768177772701</v>
-      </c>
-      <c r="D85" s="6">
+        <v>3.41274745875439</v>
+      </c>
+      <c r="D86" s="6">
         <f t="shared" si="34"/>
-        <v>0.99410680226412196</v>
-      </c>
-      <c r="E85">
+        <v>0.99270945394559595</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="34"/>
         <v>3663</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <f t="shared" si="34"/>
-        <v>-2.60305573401364</v>
-      </c>
-      <c r="G85" s="6">
+        <v>0.62448882528237404</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="34"/>
-        <v>2.98131109756909</v>
-      </c>
-      <c r="H85" s="16">
-        <f t="shared" si="32"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" ref="A86:G86" si="35">A73</f>
+        <v>6.2010060922264003</v>
+      </c>
+      <c r="H86" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="str">
+        <f t="shared" ref="A87:G87" si="35">A74</f>
         <v>.</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B87" s="3" t="str">
         <f t="shared" si="35"/>
-        <v>Div0 - Div2</v>
-      </c>
-      <c r="C86" s="6">
+        <v>Div1 - Div2</v>
+      </c>
+      <c r="C87" s="7">
         <f t="shared" si="35"/>
-        <v>3.41274745875439</v>
-      </c>
-      <c r="D86" s="6">
+        <v>3.2236197769766601</v>
+      </c>
+      <c r="D87" s="7">
         <f t="shared" si="35"/>
-        <v>0.99270945394559595</v>
-      </c>
-      <c r="E86">
+        <v>1.2090180008728699</v>
+      </c>
+      <c r="E87" s="3">
         <f t="shared" si="35"/>
         <v>3663</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="7">
         <f t="shared" si="35"/>
-        <v>0.62448882528237404</v>
-      </c>
-      <c r="G86" s="6">
+        <v>-0.172192427247186</v>
+      </c>
+      <c r="G87" s="7">
         <f t="shared" si="35"/>
-        <v>6.2010060922264003</v>
-      </c>
-      <c r="H86" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;0.01</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="str">
-        <f t="shared" ref="A87:G87" si="36">A74</f>
-        <v>.</v>
-      </c>
-      <c r="B87" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>Div1 - Div2</v>
-      </c>
-      <c r="C87" s="7">
-        <f t="shared" si="36"/>
-        <v>3.2236197769766601</v>
-      </c>
-      <c r="D87" s="7">
-        <f t="shared" si="36"/>
-        <v>1.2090180008728699</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="36"/>
-        <v>3663</v>
-      </c>
-      <c r="F87" s="7">
-        <f t="shared" si="36"/>
-        <v>-0.172192427247186</v>
-      </c>
-      <c r="G87" s="7">
-        <f t="shared" si="36"/>
         <v>6.6194319812005098</v>
       </c>
       <c r="H87" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
@@ -4294,15 +4337,15 @@
         <v>(Intercept)</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" ref="L98:L104" si="37">C98</f>
+        <f t="shared" ref="L98:L104" si="36">C98</f>
         <v>920755.21766588895</v>
       </c>
       <c r="M98">
-        <f t="shared" ref="M98:M104" si="38">D98</f>
+        <f t="shared" ref="M98:M104" si="37">D98</f>
         <v>1</v>
       </c>
       <c r="N98" s="16" t="str">
-        <f t="shared" ref="N98:N103" si="39">IF(F98&lt;0.0001,"&lt;0.0001",IF(F98&lt;0.001,"&lt;0.001",IF(F98&lt;0.01,"&lt;0.01",ROUND(F98,3))))</f>
+        <f t="shared" ref="N98:N103" si="38">IF(F98&lt;0.0001,"&lt;0.0001",IF(F98&lt;0.001,"&lt;0.001",IF(F98&lt;0.01,"&lt;0.01",ROUND(F98,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4323,25 +4366,25 @@
         <v>1.0150592503845601E-3</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" ref="K99:K104" si="40">B99</f>
+        <f t="shared" ref="K99:K104" si="39">B99</f>
         <v>DivGroup</v>
       </c>
       <c r="L99" s="2">
+        <f t="shared" si="36"/>
+        <v>4526.2287410633899</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="37"/>
-        <v>4526.2287410633899</v>
-      </c>
-      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="N99" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2">
         <v>37611.407876831698</v>
@@ -4356,25 +4399,25 @@
         <v>1.6755805863000299E-29</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>age_3</v>
       </c>
       <c r="L100" s="2">
+        <f t="shared" si="36"/>
+        <v>37611.407876831698</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="37"/>
-        <v>37611.407876831698</v>
-      </c>
-      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="N100" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C101" s="2">
         <v>4167.9773688247697</v>
@@ -4389,25 +4432,25 @@
         <v>1.10514756944281E-4</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>RIAGENDR</v>
       </c>
       <c r="L101" s="2">
+        <f t="shared" si="36"/>
+        <v>4167.9773688247697</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="37"/>
-        <v>4167.9773688247697</v>
-      </c>
-      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" s="16" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="N101" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102" s="2">
         <v>1168.54471723083</v>
@@ -4422,25 +4465,25 @@
         <v>0.24076463388167499</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>eth_5</v>
       </c>
       <c r="L102" s="2">
+        <f t="shared" si="36"/>
+        <v>1168.54471723083</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="37"/>
-        <v>1168.54471723083</v>
-      </c>
-      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102" s="16">
         <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="N102" s="16">
-        <f t="shared" si="39"/>
         <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="2">
         <v>1064.00641045766</v>
@@ -4455,25 +4498,25 @@
         <v>0.147860588586924</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>FIPL</v>
       </c>
       <c r="L103" s="2">
+        <f t="shared" si="36"/>
+        <v>1064.00641045766</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="37"/>
-        <v>1064.00641045766</v>
-      </c>
-      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103" s="16">
         <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="N103" s="16">
-        <f t="shared" si="39"/>
         <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2">
         <v>5470.1298206425299</v>
@@ -4488,19 +4531,19 @@
         <v>5.5253684273992701E-5</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>edu</v>
       </c>
       <c r="L104" s="2">
+        <f t="shared" si="36"/>
+        <v>5470.1298206425299</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="37"/>
-        <v>5470.1298206425299</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="N104" s="16" t="str">
-        <f t="shared" ref="N104:N105" si="41">IF(F104&lt;0.0001,"&lt;0.0001",IF(F104&lt;0.001,"&lt;0.001",IF(F104&lt;0.01,"&lt;0.01",ROUND(F104,3))))</f>
+        <f t="shared" ref="N104:N105" si="40">IF(F104&lt;0.0001,"&lt;0.0001",IF(F104&lt;0.001,"&lt;0.001",IF(F104&lt;0.01,"&lt;0.01",ROUND(F104,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4521,19 +4564,19 @@
         <v>0.13509340782849699</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" ref="K105:K106" si="42">B105</f>
+        <f t="shared" ref="K105:K106" si="41">B105</f>
         <v>KCAL</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" ref="L105:L106" si="43">C105</f>
+        <f t="shared" ref="L105:L106" si="42">C105</f>
         <v>621.42468625446804</v>
       </c>
       <c r="M105">
-        <f t="shared" ref="M105:M106" si="44">D105</f>
+        <f t="shared" ref="M105:M106" si="43">D105</f>
         <v>1</v>
       </c>
       <c r="N105" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.13500000000000001</v>
       </c>
     </row>
@@ -4554,21 +4597,21 @@
         <v>26</v>
       </c>
       <c r="K106" t="str">
+        <f t="shared" si="41"/>
+        <v>Residuals</v>
+      </c>
+      <c r="L106" s="2">
         <f t="shared" si="42"/>
-        <v>Residuals</v>
-      </c>
-      <c r="L106" s="2">
+        <v>917365.01585812296</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="43"/>
-        <v>917365.01585812296</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="44"/>
         <v>3298</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H108" s="11"/>
     </row>
@@ -4650,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K111" s="12"/>
       <c r="L111" s="13"/>
@@ -4718,19 +4761,19 @@
         <v>12</v>
       </c>
       <c r="J113" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" t="s">
         <v>35</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>36</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>37</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>38</v>
-      </c>
-      <c r="N113" t="s">
-        <v>39</v>
       </c>
       <c r="O113" t="s">
         <v>19</v>
@@ -4852,7 +4895,7 @@
         <v>7.4017006858680201</v>
       </c>
       <c r="H116" s="29">
-        <f t="shared" ref="H116:H119" si="45">O116</f>
+        <f t="shared" ref="H116:H119" si="44">O116</f>
         <v>3.8530414795956398E-4</v>
       </c>
       <c r="J116" t="s">
@@ -4898,7 +4941,7 @@
         <v>2.98264095087506</v>
       </c>
       <c r="H117" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.99840056702322899</v>
       </c>
       <c r="J117" t="s">
@@ -4944,7 +4987,7 @@
         <v>7.0687302530816103</v>
       </c>
       <c r="H118" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2.7422707552082798E-3</v>
       </c>
       <c r="J118" t="s">
@@ -4990,7 +5033,7 @@
         <v>8.0384970789950501</v>
       </c>
       <c r="H119" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1.7996742661638199E-2</v>
       </c>
       <c r="J119" t="s">
@@ -5015,7 +5058,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="26"/>
@@ -5057,159 +5100,159 @@
         <v>DivNA</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" ref="B123:G123" si="46">B110</f>
+        <f t="shared" ref="B123:G123" si="45">B110</f>
         <v>.</v>
       </c>
       <c r="C123" s="6">
+        <f t="shared" si="45"/>
+        <v>101.971435112492</v>
+      </c>
+      <c r="D123" s="6">
+        <f t="shared" si="45"/>
+        <v>0.53859177836507999</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="45"/>
+        <v>3298</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="45"/>
+        <v>100.458571554616</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="45"/>
+        <v>103.48429867036801</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" ref="A124:G124" si="46">A111</f>
+        <v>Div0</v>
+      </c>
+      <c r="B124" t="str">
         <f t="shared" si="46"/>
-        <v>101.971435112492</v>
-      </c>
-      <c r="D123" s="6">
+        <v>.</v>
+      </c>
+      <c r="C124" s="6">
         <f t="shared" si="46"/>
-        <v>0.53859177836507999</v>
-      </c>
-      <c r="E123">
+        <v>101.54276019474599</v>
+      </c>
+      <c r="D124" s="6">
+        <f t="shared" si="46"/>
+        <v>0.63207571683417796</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="46"/>
         <v>3298</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F124" s="6">
         <f t="shared" si="46"/>
-        <v>100.458571554616</v>
-      </c>
-      <c r="G123" s="6">
+        <v>99.767307326305399</v>
+      </c>
+      <c r="G124" s="6">
         <f t="shared" si="46"/>
-        <v>103.48429867036801</v>
-      </c>
-      <c r="H123" t="s">
+        <v>103.31821306318599</v>
+      </c>
+      <c r="H124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
-        <f t="shared" ref="A124:G124" si="47">A111</f>
-        <v>Div0</v>
-      </c>
-      <c r="B124" t="str">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" ref="A125:G125" si="47">A112</f>
+        <v>Div1</v>
+      </c>
+      <c r="B125" t="str">
         <f t="shared" si="47"/>
         <v>.</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C125" s="6">
         <f t="shared" si="47"/>
-        <v>101.54276019474599</v>
-      </c>
-      <c r="D124" s="6">
+        <v>101.728981608846</v>
+      </c>
+      <c r="D125" s="6">
         <f t="shared" si="47"/>
-        <v>0.63207571683417796</v>
-      </c>
-      <c r="E124">
+        <v>1.06435875564474</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="47"/>
         <v>3298</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F125" s="6">
         <f t="shared" si="47"/>
-        <v>99.767307326305399</v>
-      </c>
-      <c r="G124" s="6">
+        <v>98.739278389072993</v>
+      </c>
+      <c r="G125" s="6">
         <f t="shared" si="47"/>
-        <v>103.31821306318599</v>
-      </c>
-      <c r="H124" t="s">
+        <v>104.718684828618</v>
+      </c>
+      <c r="H125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f t="shared" ref="A125:G125" si="48">A112</f>
-        <v>Div1</v>
-      </c>
-      <c r="B125" t="str">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" ref="A126:G126" si="48">A113</f>
+        <v>Div2</v>
+      </c>
+      <c r="B126" t="str">
         <f t="shared" si="48"/>
         <v>.</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C126" s="6">
         <f t="shared" si="48"/>
-        <v>101.728981608846</v>
-      </c>
-      <c r="D125" s="6">
+        <v>97.625671289901703</v>
+      </c>
+      <c r="D126" s="6">
         <f t="shared" si="48"/>
-        <v>1.06435875564474</v>
-      </c>
-      <c r="E125">
+        <v>1.0672485612059099</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="48"/>
         <v>3298</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F126" s="6">
         <f t="shared" si="48"/>
-        <v>98.739278389072993</v>
-      </c>
-      <c r="G125" s="6">
+        <v>94.627850824938207</v>
+      </c>
+      <c r="G126" s="6">
         <f t="shared" si="48"/>
-        <v>104.718684828618</v>
-      </c>
-      <c r="H125" t="s">
+        <v>100.623491754865</v>
+      </c>
+      <c r="H126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f t="shared" ref="A126:G126" si="49">A113</f>
-        <v>Div2</v>
-      </c>
-      <c r="B126" t="str">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="str">
+        <f t="shared" ref="A127:G127" si="49">A114</f>
+        <v>.</v>
+      </c>
+      <c r="B127" s="4" t="str">
         <f t="shared" si="49"/>
-        <v>.</v>
-      </c>
-      <c r="C126" s="6">
+        <v>DivNA - Div0</v>
+      </c>
+      <c r="C127" s="5">
         <f t="shared" si="49"/>
-        <v>97.625671289901703</v>
-      </c>
-      <c r="D126" s="6">
+        <v>0.42867491774585398</v>
+      </c>
+      <c r="D127" s="5">
         <f t="shared" si="49"/>
-        <v>1.0672485612059099</v>
-      </c>
-      <c r="E126">
+        <v>0.66899302504341196</v>
+      </c>
+      <c r="E127" s="4">
         <f t="shared" si="49"/>
         <v>3298</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F127" s="5">
         <f t="shared" si="49"/>
-        <v>94.627850824938207</v>
-      </c>
-      <c r="G126" s="6">
+        <v>-1.4504758764486001</v>
+      </c>
+      <c r="G127" s="5">
         <f t="shared" si="49"/>
-        <v>100.623491754865</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="str">
-        <f t="shared" ref="A127:G127" si="50">A114</f>
-        <v>.</v>
-      </c>
-      <c r="B127" s="4" t="str">
-        <f t="shared" si="50"/>
-        <v>DivNA - Div0</v>
-      </c>
-      <c r="C127" s="5">
-        <f t="shared" si="50"/>
-        <v>0.42867491774585398</v>
-      </c>
-      <c r="D127" s="5">
-        <f t="shared" si="50"/>
-        <v>0.66899302504341196</v>
-      </c>
-      <c r="E127" s="4">
-        <f t="shared" si="50"/>
-        <v>3298</v>
-      </c>
-      <c r="F127" s="5">
-        <f t="shared" si="50"/>
-        <v>-1.4504758764486001</v>
-      </c>
-      <c r="G127" s="5">
-        <f t="shared" si="50"/>
         <v>2.3078257119403101</v>
       </c>
       <c r="H127" s="17">
@@ -5219,171 +5262,171 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" ref="A128:G128" si="51">A115</f>
+        <f t="shared" ref="A128:G128" si="50">A115</f>
         <v>.</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>DivNA - Div1</v>
       </c>
       <c r="C128" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0.242453503646164</v>
       </c>
       <c r="D128" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1.0910212258448599</v>
       </c>
       <c r="E128">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>3298</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-2.8221425777499598</v>
       </c>
       <c r="G128" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>3.3070495850422899</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" ref="H128:H132" si="52">IF(H115&lt;0.0001,"&lt;0.0001",IF(H115&lt;0.001,"&lt;0.001",IF(H115&lt;0.01,"&lt;0.01",ROUND(H115,3))))</f>
+        <f t="shared" ref="H128:H132" si="51">IF(H115&lt;0.0001,"&lt;0.0001",IF(H115&lt;0.001,"&lt;0.001",IF(H115&lt;0.01,"&lt;0.01",ROUND(H115,3))))</f>
         <v>0.996</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" ref="A129:G129" si="53">A116</f>
+        <f t="shared" ref="A129:G129" si="52">A116</f>
         <v>.</v>
       </c>
       <c r="B129" t="str">
+        <f t="shared" si="52"/>
+        <v>DivNA - Div2</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" si="52"/>
+        <v>4.3457638225899302</v>
+      </c>
+      <c r="D129" s="6">
+        <f t="shared" si="52"/>
+        <v>1.0879384734967299</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="52"/>
+        <v>3298</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="52"/>
+        <v>1.2898269593118401</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="52"/>
+        <v>7.4017006858680201</v>
+      </c>
+      <c r="H129" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:G130" si="53">A117</f>
+        <v>.</v>
+      </c>
+      <c r="B130" t="str">
         <f t="shared" si="53"/>
-        <v>DivNA - Div2</v>
-      </c>
-      <c r="C129" s="6">
+        <v>Div0 - Div1</v>
+      </c>
+      <c r="C130" s="6">
         <f t="shared" si="53"/>
-        <v>4.3457638225899302</v>
-      </c>
-      <c r="D129" s="6">
+        <v>-0.18622141409969001</v>
+      </c>
+      <c r="D130" s="6">
         <f t="shared" si="53"/>
-        <v>1.0879384734967299</v>
-      </c>
-      <c r="E129">
+        <v>1.1281408740800101</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="53"/>
         <v>3298</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F130" s="6">
         <f t="shared" si="53"/>
-        <v>1.2898269593118401</v>
-      </c>
-      <c r="G129" s="6">
+        <v>-3.3550837790744401</v>
+      </c>
+      <c r="G130" s="6">
         <f t="shared" si="53"/>
-        <v>7.4017006858680201</v>
-      </c>
-      <c r="H129" s="16" t="str">
-        <f t="shared" si="52"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f t="shared" ref="A130:G130" si="54">A117</f>
+        <v>2.98264095087506</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="51"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:G131" si="54">A118</f>
         <v>.</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B131" t="str">
         <f t="shared" si="54"/>
-        <v>Div0 - Div1</v>
-      </c>
-      <c r="C130" s="6">
+        <v>Div0 - Div2</v>
+      </c>
+      <c r="C131" s="6">
         <f t="shared" si="54"/>
-        <v>-0.18622141409969001</v>
-      </c>
-      <c r="D130" s="6">
+        <v>3.91708890484407</v>
+      </c>
+      <c r="D131" s="6">
         <f t="shared" si="54"/>
-        <v>1.1281408740800101</v>
-      </c>
-      <c r="E130">
+        <v>1.1220100515207201</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="54"/>
         <v>3298</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F131" s="6">
         <f t="shared" si="54"/>
-        <v>-3.3550837790744401</v>
-      </c>
-      <c r="G130" s="6">
+        <v>0.76544755660653496</v>
+      </c>
+      <c r="G131" s="6">
         <f t="shared" si="54"/>
-        <v>2.98264095087506</v>
-      </c>
-      <c r="H130" s="16">
-        <f t="shared" si="52"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f t="shared" ref="A131:G131" si="55">A118</f>
+        <v>7.0687302530816103</v>
+      </c>
+      <c r="H131" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="str">
+        <f t="shared" ref="A132:G132" si="55">A119</f>
         <v>.</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B132" s="3" t="str">
         <f t="shared" si="55"/>
-        <v>Div0 - Div2</v>
-      </c>
-      <c r="C131" s="6">
+        <v>Div1 - Div2</v>
+      </c>
+      <c r="C132" s="7">
         <f t="shared" si="55"/>
-        <v>3.91708890484407</v>
-      </c>
-      <c r="D131" s="6">
+        <v>4.1033103189437599</v>
+      </c>
+      <c r="D132" s="7">
         <f t="shared" si="55"/>
-        <v>1.1220100515207201</v>
-      </c>
-      <c r="E131">
+        <v>1.40095861537606</v>
+      </c>
+      <c r="E132" s="3">
         <f t="shared" si="55"/>
         <v>3298</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F132" s="7">
         <f t="shared" si="55"/>
-        <v>0.76544755660653496</v>
-      </c>
-      <c r="G131" s="6">
+        <v>0.16812355889248201</v>
+      </c>
+      <c r="G132" s="7">
         <f t="shared" si="55"/>
-        <v>7.0687302530816103</v>
-      </c>
-      <c r="H131" s="16" t="str">
-        <f t="shared" si="52"/>
-        <v>&lt;0.01</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="str">
-        <f t="shared" ref="A132:G132" si="56">A119</f>
-        <v>.</v>
-      </c>
-      <c r="B132" s="3" t="str">
-        <f t="shared" si="56"/>
-        <v>Div1 - Div2</v>
-      </c>
-      <c r="C132" s="7">
-        <f t="shared" si="56"/>
-        <v>4.1033103189437599</v>
-      </c>
-      <c r="D132" s="7">
-        <f t="shared" si="56"/>
-        <v>1.40095861537606</v>
-      </c>
-      <c r="E132" s="3">
-        <f t="shared" si="56"/>
-        <v>3298</v>
-      </c>
-      <c r="F132" s="7">
-        <f t="shared" si="56"/>
-        <v>0.16812355889248201</v>
-      </c>
-      <c r="G132" s="7">
-        <f t="shared" si="56"/>
         <v>8.0384970789950501</v>
       </c>
       <c r="H132" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>

--- a/eg_data/NHANES/PF/Waist2/Waist/Waist.xlsx
+++ b/eg_data/NHANES/PF/Waist2/Waist/Waist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist2\Waist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8A6DD-FEF6-4FDC-887F-4E393CABAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F83F9E-8725-4EC8-BD44-1AFE9F2E10F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="-2955" windowWidth="16785" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="64">
   <si>
     <t>Plain means</t>
   </si>
@@ -227,6 +227,9 @@
   <si>
     <t>Residual</t>
   </si>
+  <si>
+    <t>Family IPR</t>
+  </si>
 </sst>
 </file>
 
@@ -375,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,9 +423,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,9 +504,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.217186428229593"/>
+          <c:x val="0.23229433689329562"/>
           <c:y val="6.7276620684465105E-2"/>
-          <c:w val="0.74713790216847809"/>
+          <c:w val="0.73202990585847294"/>
           <c:h val="0.76845122306270808"/>
         </c:manualLayout>
       </c:layout>
@@ -530,7 +530,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FDCBCB"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -686,7 +688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -731,7 +733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2217,16 +2219,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2475,12 +2477,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>2.55373E-7</cdr:x>
-      <cdr:y>0.01167</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.03346</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.1</cdr:x>
-      <cdr:y>0.89883</cdr:y>
+      <cdr:y>0.92062</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2495,8 +2497,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
-          <a:off x="-1010712" y="1042454"/>
-          <a:ext cx="2413009" cy="391583"/>
+          <a:off x="-1646223" y="1792483"/>
+          <a:ext cx="3877703" cy="585257"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2508,7 +2510,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2600">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2518,9 +2520,22 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>BMI</a:t>
+            <a:t>Waist circumference</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1050">
+          <a:r>
+            <a:rPr lang="en-US" sz="2600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (cm)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2600">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="65000"/>
@@ -3126,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,10 +3151,12 @@
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3227,6 +3244,8 @@
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3234,7 +3253,10 @@
         <v>21</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3253,20 +3275,27 @@
       <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="K14" t="str">
-        <f>B14</f>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14:J22" si="0">B14</f>
         <v>(Intercept)</v>
       </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
       <c r="L14" s="2">
-        <f t="shared" ref="L14:M14" si="0">C14</f>
+        <f t="shared" ref="L14:N21" si="1">C14</f>
         <v>968293.37325224804</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="16" t="str">
-        <f t="shared" ref="N14:N21" si="1">IF(F14&lt;0.0001,"&lt;0.0001",IF(F14&lt;0.001,"&lt;0.001",IF(F14&lt;0.01,"&lt;0.01",ROUND(F14,3))))</f>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>3684.3168401559801</v>
+      </c>
+      <c r="O14" s="16" t="str">
+        <f t="shared" ref="O14:O21" si="2">IF(F14&lt;0.0001,"&lt;0.0001",IF(F14&lt;0.001,"&lt;0.001",IF(F14&lt;0.01,"&lt;0.01",ROUND(F14,3))))</f>
         <v>&lt;0.0001</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -3292,9 +3321,12 @@
       <c r="F15" s="10">
         <v>1.77371689987879E-3</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" ref="K15:K21" si="2">B15</f>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
         <v>DivGroup</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ref="L15:L21" si="3">C15</f>
@@ -3304,15 +3336,18 @@
         <f t="shared" ref="M15:M21" si="4">D15</f>
         <v>3</v>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
+        <v>5.0266805727363497</v>
+      </c>
+      <c r="O15" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;0.01</v>
       </c>
       <c r="S15" t="s">
         <v>2</v>
       </c>
       <c r="T15" s="2">
-        <f>C39</f>
         <v>99.809817040061105</v>
       </c>
     </row>
@@ -3332,9 +3367,12 @@
       <c r="F16" s="10">
         <v>8.4665571258903306E-31</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="2"/>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
         <v>age_3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="3"/>
@@ -3344,15 +3382,18 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
+        <v>70.583704914434904</v>
+      </c>
+      <c r="O16" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;0.0001</v>
       </c>
       <c r="S16" t="s">
         <v>3</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16:T18" si="5">C40</f>
         <v>99.455013043041106</v>
       </c>
     </row>
@@ -3372,9 +3413,12 @@
       <c r="F17" s="10">
         <v>1.2570704576855799E-5</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
         <v>RIAGENDR</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="3"/>
@@ -3384,15 +3428,18 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
+        <v>19.1275138494114</v>
+      </c>
+      <c r="O17" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;0.0001</v>
       </c>
       <c r="S17" t="s">
         <v>4</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="5"/>
         <v>99.2700958938469</v>
       </c>
     </row>
@@ -3412,9 +3459,12 @@
       <c r="F18" s="10">
         <v>9.9062304518729108E-25</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
         <v>eth_5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="3"/>
@@ -3424,15 +3474,18 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="2">
         <f t="shared" si="1"/>
+        <v>30.169123163673</v>
+      </c>
+      <c r="O18" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;0.0001</v>
       </c>
       <c r="S18" t="s">
         <v>5</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="5"/>
         <v>96.051246256646195</v>
       </c>
     </row>
@@ -3452,9 +3505,12 @@
       <c r="F19" s="10">
         <v>0.23790227514780601</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="2"/>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
         <v>FIPL</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="3"/>
@@ -3464,8 +3520,12 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="2">
         <f t="shared" si="1"/>
+        <v>1.43646421960213</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="2"/>
         <v>0.23799999999999999</v>
       </c>
     </row>
@@ -3485,9 +3545,12 @@
       <c r="F20">
         <v>3.41785265769674E-4</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="2"/>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
         <v>edu</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
@@ -3497,8 +3560,12 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="2">
         <f t="shared" si="1"/>
+        <v>7.9989265721445904</v>
+      </c>
+      <c r="O20" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -3518,9 +3585,12 @@
       <c r="F21">
         <v>0.102473450496896</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="2"/>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
         <v>KCAL</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="3"/>
@@ -3530,8 +3600,12 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="2">
         <f t="shared" si="1"/>
+        <v>2.6679689707924501</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="2"/>
         <v>0.10199999999999999</v>
       </c>
     </row>
@@ -3551,18 +3625,23 @@
       <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" ref="K22" si="6">B22</f>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Residuals</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" ref="L22" si="7">C22</f>
+      <c r="K22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="35">
+        <f t="shared" ref="L22" si="5">C22</f>
         <v>952704.023655792</v>
       </c>
-      <c r="M22">
-        <f t="shared" ref="M22" si="8">D22</f>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22" si="6">D22</f>
         <v>3625</v>
       </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3850,7 +3929,7 @@
         <v>6.5036292366905899</v>
       </c>
       <c r="H32" s="29">
-        <f t="shared" ref="H32:H35" si="9">O32</f>
+        <f t="shared" ref="H32:H35" si="7">O32</f>
         <v>7.0552603428408701E-4</v>
       </c>
       <c r="J32" t="s">
@@ -3896,7 +3975,7 @@
         <v>2.9755541217977499</v>
       </c>
       <c r="H33" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.99771377313223097</v>
       </c>
       <c r="J33" t="s">
@@ -3942,7 +4021,7 @@
         <v>6.2271108616330597</v>
       </c>
       <c r="H34" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.9921019173658799E-3</v>
       </c>
       <c r="J34" t="s">
@@ -3988,7 +4067,7 @@
         <v>6.6256257722978402</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.9905801282414902E-2</v>
       </c>
       <c r="J35" t="s">
@@ -4055,159 +4134,159 @@
         <v>DivNA</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" ref="B39:G39" si="10">B26</f>
+        <f t="shared" ref="B39:G39" si="8">B26</f>
         <v>.</v>
       </c>
       <c r="C39" s="6">
+        <f t="shared" si="8"/>
+        <v>99.809817040061105</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="8"/>
+        <v>0.49717622541682699</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="8"/>
+        <v>3625</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="8"/>
+        <v>98.413371475264597</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="8"/>
+        <v>101.206262604858</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" ref="A40:G40" si="9">A27</f>
+        <v>Div0</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="9"/>
+        <v>.</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="9"/>
+        <v>99.455013043041106</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="9"/>
+        <v>0.57794009477446495</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>3625</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="9"/>
+        <v>97.831721661018094</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="9"/>
+        <v>101.078304425064</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" ref="A41:G41" si="10">A28</f>
+        <v>Div1</v>
+      </c>
+      <c r="B41" t="str">
         <f t="shared" si="10"/>
-        <v>99.809817040061105</v>
-      </c>
-      <c r="D39" s="6">
+        <v>.</v>
+      </c>
+      <c r="C41" s="6">
         <f t="shared" si="10"/>
-        <v>0.49717622541682699</v>
-      </c>
-      <c r="E39">
+        <v>99.2700958938469</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="10"/>
+        <v>0.91177681798301902</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="10"/>
         <v>3625</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="10"/>
-        <v>98.413371475264597</v>
-      </c>
-      <c r="G39" s="6">
+        <v>96.709139378902506</v>
+      </c>
+      <c r="G41" s="6">
         <f t="shared" si="10"/>
-        <v>101.206262604858</v>
-      </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f t="shared" ref="A40:G40" si="11">A27</f>
-        <v>Div0</v>
-      </c>
-      <c r="B40" t="str">
+        <v>101.831052408791</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" ref="A42:G42" si="11">A29</f>
+        <v>Div2</v>
+      </c>
+      <c r="B42" t="str">
         <f t="shared" si="11"/>
         <v>.</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C42" s="6">
         <f t="shared" si="11"/>
-        <v>99.455013043041106</v>
-      </c>
-      <c r="D40" s="6">
+        <v>96.051246256646195</v>
+      </c>
+      <c r="D42" s="6">
         <f t="shared" si="11"/>
-        <v>0.57794009477446495</v>
-      </c>
-      <c r="E40">
+        <v>0.92661116736473403</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="11"/>
         <v>3625</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="11"/>
-        <v>97.831721661018094</v>
-      </c>
-      <c r="G40" s="6">
+        <v>93.448623707926004</v>
+      </c>
+      <c r="G42" s="6">
         <f t="shared" si="11"/>
-        <v>101.078304425064</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f t="shared" ref="A41:G41" si="12">A28</f>
-        <v>Div1</v>
-      </c>
-      <c r="B41" t="str">
+        <v>98.6538688053664</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f t="shared" ref="A43:G43" si="12">A30</f>
+        <v>.</v>
+      </c>
+      <c r="B43" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>.</v>
-      </c>
-      <c r="C41" s="6">
+        <v>DivNA - Div0</v>
+      </c>
+      <c r="C43" s="5">
         <f t="shared" si="12"/>
-        <v>99.2700958938469</v>
-      </c>
-      <c r="D41" s="6">
+        <v>0.35480399702002302</v>
+      </c>
+      <c r="D43" s="5">
         <f t="shared" si="12"/>
-        <v>0.91177681798301902</v>
-      </c>
-      <c r="E41">
+        <v>0.62681389921201103</v>
+      </c>
+      <c r="E43" s="4">
         <f t="shared" si="12"/>
         <v>3625</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F43" s="5">
         <f t="shared" si="12"/>
-        <v>96.709139378902506</v>
-      </c>
-      <c r="G41" s="6">
+        <v>-1.40576186425701</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="12"/>
-        <v>101.831052408791</v>
-      </c>
-      <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f t="shared" ref="A42:G42" si="13">A29</f>
-        <v>Div2</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="13"/>
-        <v>.</v>
-      </c>
-      <c r="C42" s="6">
-        <f t="shared" si="13"/>
-        <v>96.051246256646195</v>
-      </c>
-      <c r="D42" s="6">
-        <f t="shared" si="13"/>
-        <v>0.92661116736473403</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="13"/>
-        <v>3625</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="13"/>
-        <v>93.448623707926004</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="13"/>
-        <v>98.6538688053664</v>
-      </c>
-      <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str">
-        <f t="shared" ref="A43:G43" si="14">A30</f>
-        <v>.</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>DivNA - Div0</v>
-      </c>
-      <c r="C43" s="5">
-        <f t="shared" si="14"/>
-        <v>0.35480399702002302</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="14"/>
-        <v>0.62681389921201103</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="14"/>
-        <v>3625</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="14"/>
-        <v>-1.40576186425701</v>
-      </c>
-      <c r="G43" s="5">
-        <f t="shared" si="14"/>
         <v>2.1153698582970599</v>
       </c>
       <c r="H43" s="17">
@@ -4217,171 +4296,171 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" ref="A44:G44" si="15">A31</f>
+        <f t="shared" ref="A44:G44" si="13">A31</f>
         <v>.</v>
       </c>
       <c r="B44" t="str">
+        <f t="shared" si="13"/>
+        <v>DivNA - Div1</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="13"/>
+        <v>0.53972114621427203</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="13"/>
+        <v>0.95943590727632599</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="13"/>
+        <v>3625</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="13"/>
+        <v>-2.15509801232312</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="13"/>
+        <v>3.2345403047516701</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" ref="H44:H48" si="14">IF(H31&lt;0.0001,"&lt;0.0001",IF(H31&lt;0.001,"&lt;0.001",IF(H31&lt;0.01,"&lt;0.01",ROUND(H31,3))))</f>
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" ref="A45:G45" si="15">A32</f>
+        <v>.</v>
+      </c>
+      <c r="B45" t="str">
         <f t="shared" si="15"/>
-        <v>DivNA - Div1</v>
-      </c>
-      <c r="C44" s="6">
+        <v>DivNA - Div2</v>
+      </c>
+      <c r="C45" s="6">
         <f t="shared" si="15"/>
-        <v>0.53972114621427203</v>
-      </c>
-      <c r="D44" s="6">
+        <v>3.75857078341497</v>
+      </c>
+      <c r="D45" s="6">
         <f t="shared" si="15"/>
-        <v>0.95943590727632599</v>
-      </c>
-      <c r="E44">
+        <v>0.97732259298411595</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="15"/>
         <v>3625</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="15"/>
-        <v>-2.15509801232312</v>
-      </c>
-      <c r="G44" s="6">
+        <v>1.01351233013935</v>
+      </c>
+      <c r="G45" s="6">
         <f t="shared" si="15"/>
-        <v>3.2345403047516701</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" ref="H44:H48" si="16">IF(H31&lt;0.0001,"&lt;0.0001",IF(H31&lt;0.001,"&lt;0.001",IF(H31&lt;0.01,"&lt;0.01",ROUND(H31,3))))</f>
-        <v>0.94299999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f t="shared" ref="A45:G45" si="17">A32</f>
+        <v>6.5036292366905899</v>
+      </c>
+      <c r="H45" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;0.001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46:G46" si="16">A33</f>
         <v>.</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B46" t="str">
+        <f t="shared" si="16"/>
+        <v>Div0 - Div1</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="16"/>
+        <v>0.18491714919424901</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="16"/>
+        <v>0.99354990378718799</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="16"/>
+        <v>3625</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="16"/>
+        <v>-2.6057198234092498</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="16"/>
+        <v>2.9755541217977499</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="14"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" ref="A47:G47" si="17">A34</f>
+        <v>.</v>
+      </c>
+      <c r="B47" t="str">
         <f t="shared" si="17"/>
-        <v>DivNA - Div2</v>
-      </c>
-      <c r="C45" s="6">
+        <v>Div0 - Div2</v>
+      </c>
+      <c r="C47" s="6">
         <f t="shared" si="17"/>
-        <v>3.75857078341497</v>
-      </c>
-      <c r="D45" s="6">
+        <v>3.4037667863949501</v>
+      </c>
+      <c r="D47" s="6">
         <f t="shared" si="17"/>
-        <v>0.97732259298411595</v>
-      </c>
-      <c r="E45">
+        <v>1.0051946067689099</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="17"/>
         <v>3625</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="17"/>
-        <v>1.01351233013935</v>
-      </c>
-      <c r="G45" s="6">
+        <v>0.58042271115683197</v>
+      </c>
+      <c r="G47" s="6">
         <f t="shared" si="17"/>
-        <v>6.5036292366905899</v>
-      </c>
-      <c r="H45" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;0.001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f t="shared" ref="A46:G46" si="18">A33</f>
+        <v>6.2271108616330597</v>
+      </c>
+      <c r="H47" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="str">
+        <f t="shared" ref="A48:G48" si="18">A35</f>
         <v>.</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B48" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>Div0 - Div1</v>
-      </c>
-      <c r="C46" s="6">
+        <v>Div1 - Div2</v>
+      </c>
+      <c r="C48" s="7">
         <f t="shared" si="18"/>
-        <v>0.18491714919424901</v>
-      </c>
-      <c r="D46" s="6">
+        <v>3.2188496372006998</v>
+      </c>
+      <c r="D48" s="7">
         <f t="shared" si="18"/>
-        <v>0.99354990378718799</v>
-      </c>
-      <c r="E46">
+        <v>1.2129138022895301</v>
+      </c>
+      <c r="E48" s="3">
         <f t="shared" si="18"/>
         <v>3625</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F48" s="7">
         <f t="shared" si="18"/>
-        <v>-2.6057198234092498</v>
-      </c>
-      <c r="G46" s="6">
+        <v>-0.187926497896445</v>
+      </c>
+      <c r="G48" s="7">
         <f t="shared" si="18"/>
-        <v>2.9755541217977499</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="16"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f t="shared" ref="A47:G47" si="19">A34</f>
-        <v>.</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="19"/>
-        <v>Div0 - Div2</v>
-      </c>
-      <c r="C47" s="6">
-        <f t="shared" si="19"/>
-        <v>3.4037667863949501</v>
-      </c>
-      <c r="D47" s="6">
-        <f t="shared" si="19"/>
-        <v>1.0051946067689099</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="19"/>
-        <v>3625</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="19"/>
-        <v>0.58042271115683197</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" si="19"/>
-        <v>6.2271108616330597</v>
-      </c>
-      <c r="H47" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="str">
-        <f t="shared" ref="A48:G48" si="20">A35</f>
-        <v>.</v>
-      </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>Div1 - Div2</v>
-      </c>
-      <c r="C48" s="7">
-        <f t="shared" si="20"/>
-        <v>3.2188496372006998</v>
-      </c>
-      <c r="D48" s="7">
-        <f t="shared" si="20"/>
-        <v>1.2129138022895301</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="20"/>
-        <v>3625</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="20"/>
-        <v>-0.187926497896445</v>
-      </c>
-      <c r="G48" s="7">
-        <f t="shared" si="20"/>
         <v>6.6256257722978402</v>
       </c>
       <c r="H48" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.04</v>
       </c>
     </row>
@@ -4470,7 +4549,7 @@
         <v>7784.8021281712699</v>
       </c>
       <c r="P55" s="16" t="str">
-        <f t="shared" ref="P55:P60" si="21">IF(F55&lt;0.0001,"&lt;0.0001",IF(F55&lt;0.001,"&lt;0.001",IF(F55&lt;0.01,"&lt;0.01",ROUND(F55,3))))</f>
+        <f t="shared" ref="P55:P60" si="19">IF(F55&lt;0.0001,"&lt;0.0001",IF(F55&lt;0.001,"&lt;0.001",IF(F55&lt;0.01,"&lt;0.01",ROUND(F55,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4491,26 +4570,26 @@
         <v>2.5140037931883799E-3</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" ref="K56:K61" si="22">B56</f>
+        <f t="shared" ref="K56:K61" si="20">B56</f>
         <v>DivGroup</v>
       </c>
       <c r="L56" t="s">
         <v>1</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:M61" si="23">C56</f>
+        <f t="shared" ref="M56:M61" si="21">C56</f>
         <v>3769.8122764711702</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:O60" si="24">D56</f>
+        <f t="shared" ref="N56:O60" si="22">D56</f>
         <v>3</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4.7782382444864204</v>
       </c>
       <c r="P56" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>&lt;0.01</v>
       </c>
     </row>
@@ -4531,26 +4610,26 @@
         <v>6.5893933443196198E-30</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>age_3</v>
       </c>
       <c r="L57" t="s">
         <v>53</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>36003.686334306098</v>
       </c>
       <c r="N57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>68.452025605680205</v>
       </c>
       <c r="P57" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4571,26 +4650,26 @@
         <v>6.0183509856101306E-8</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>RIAGENDR</v>
       </c>
       <c r="L58" t="s">
         <v>54</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>7752.9671206431203</v>
       </c>
       <c r="N58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>29.480664781626899</v>
       </c>
       <c r="P58" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4611,26 +4690,26 @@
         <v>6.0806303317921598E-26</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>eth_5</v>
       </c>
       <c r="L59" t="s">
         <v>55</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>33278.009846545901</v>
       </c>
       <c r="N59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>31.634915949582801</v>
       </c>
       <c r="P59" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4651,26 +4730,26 @@
         <v>5.1906426976139999E-5</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>edu</v>
       </c>
       <c r="L60" t="s">
         <v>56</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>5203.3894613502798</v>
       </c>
       <c r="N60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9.8929466648887807</v>
       </c>
       <c r="P60" s="16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -4691,14 +4770,14 @@
         <v>26</v>
       </c>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>Residuals</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M61" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>954108.90229392704</v>
       </c>
       <c r="N61" s="1">
@@ -5097,7 +5176,7 @@
         <v>6.1281843420907496</v>
       </c>
       <c r="H75" s="29">
-        <f t="shared" ref="H73:H76" si="25">O75</f>
+        <f t="shared" ref="H75:H76" si="23">O75</f>
         <v>5.2480761408841801E-3</v>
       </c>
       <c r="J75" t="s">
@@ -5143,7 +5222,7 @@
         <v>6.5646743980694398</v>
       </c>
       <c r="H76" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.5598492556458099E-2</v>
       </c>
       <c r="J76" t="s">
@@ -5210,159 +5289,159 @@
         <v>DivNA</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" ref="B80:G80" si="26">B67</f>
+        <f t="shared" ref="B80:G80" si="24">B67</f>
         <v>.</v>
       </c>
       <c r="C80" s="6">
+        <f t="shared" si="24"/>
+        <v>99.894933538115893</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="24"/>
+        <v>0.48554696350146498</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="24"/>
+        <v>3628</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="24"/>
+        <v>98.531152396747999</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="24"/>
+        <v>101.258714679484</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" ref="A81:G81" si="25">A68</f>
+        <v>Div0</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="25"/>
+        <v>.</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="25"/>
+        <v>99.579646498512005</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="25"/>
+        <v>0.57006888472942396</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="25"/>
+        <v>3628</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="25"/>
+        <v>97.978464218083204</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="25"/>
+        <v>101.18082877894101</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" ref="A82:G82" si="26">A69</f>
+        <v>Div1</v>
+      </c>
+      <c r="B82" t="str">
         <f t="shared" si="26"/>
-        <v>99.894933538115893</v>
-      </c>
-      <c r="D80" s="6">
+        <v>.</v>
+      </c>
+      <c r="C82" s="6">
         <f t="shared" si="26"/>
-        <v>0.48554696350146498</v>
-      </c>
-      <c r="E80">
+        <v>99.424163523872295</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="26"/>
+        <v>0.90736591272451494</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="26"/>
         <v>3628</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F82" s="6">
         <f t="shared" si="26"/>
-        <v>98.531152396747999</v>
-      </c>
-      <c r="G80" s="6">
+        <v>96.875597446617803</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="26"/>
-        <v>101.258714679484</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f t="shared" ref="A81:G81" si="27">A68</f>
-        <v>Div0</v>
-      </c>
-      <c r="B81" t="str">
+        <v>101.972729601127</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" ref="A83:G83" si="27">A70</f>
+        <v>Div2</v>
+      </c>
+      <c r="B83" t="str">
         <f t="shared" si="27"/>
         <v>.</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C83" s="6">
         <f t="shared" si="27"/>
-        <v>99.579646498512005</v>
-      </c>
-      <c r="D81" s="6">
+        <v>96.265528299052207</v>
+      </c>
+      <c r="D83" s="6">
         <f t="shared" si="27"/>
-        <v>0.57006888472942396</v>
-      </c>
-      <c r="E81">
+        <v>0.91763805581416602</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="27"/>
         <v>3628</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F83" s="6">
         <f t="shared" si="27"/>
-        <v>97.978464218083204</v>
-      </c>
-      <c r="G81" s="6">
+        <v>93.688110316461902</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="27"/>
-        <v>101.18082877894101</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f t="shared" ref="A82:G82" si="28">A69</f>
-        <v>Div1</v>
-      </c>
-      <c r="B82" t="str">
+        <v>98.842946281642597</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f t="shared" ref="A84:G84" si="28">A71</f>
+        <v>.</v>
+      </c>
+      <c r="B84" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>.</v>
-      </c>
-      <c r="C82" s="6">
+        <v>DivNA - Div0</v>
+      </c>
+      <c r="C84" s="5">
         <f t="shared" si="28"/>
-        <v>99.424163523872295</v>
-      </c>
-      <c r="D82" s="6">
+        <v>0.31528703960384602</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="28"/>
-        <v>0.90736591272451494</v>
-      </c>
-      <c r="E82">
+        <v>0.62535831214372595</v>
+      </c>
+      <c r="E84" s="4">
         <f t="shared" si="28"/>
         <v>3628</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F84" s="5">
         <f t="shared" si="28"/>
-        <v>96.875597446617803</v>
-      </c>
-      <c r="G82" s="6">
+        <v>-1.4411895462016</v>
+      </c>
+      <c r="G84" s="5">
         <f t="shared" si="28"/>
-        <v>101.972729601127</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f t="shared" ref="A83:G83" si="29">A70</f>
-        <v>Div2</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
-      </c>
-      <c r="C83" s="6">
-        <f t="shared" si="29"/>
-        <v>96.265528299052207</v>
-      </c>
-      <c r="D83" s="6">
-        <f t="shared" si="29"/>
-        <v>0.91763805581416602</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="29"/>
-        <v>3628</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="29"/>
-        <v>93.688110316461902</v>
-      </c>
-      <c r="G83" s="6">
-        <f t="shared" si="29"/>
-        <v>98.842946281642597</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str">
-        <f t="shared" ref="A84:G84" si="30">A71</f>
-        <v>.</v>
-      </c>
-      <c r="B84" s="4" t="str">
-        <f t="shared" si="30"/>
-        <v>DivNA - Div0</v>
-      </c>
-      <c r="C84" s="5">
-        <f t="shared" si="30"/>
-        <v>0.31528703960384602</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="30"/>
-        <v>0.62535831214372595</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="30"/>
-        <v>3628</v>
-      </c>
-      <c r="F84" s="5">
-        <f t="shared" si="30"/>
-        <v>-1.4411895462016</v>
-      </c>
-      <c r="G84" s="5">
-        <f t="shared" si="30"/>
         <v>2.0717636254092899</v>
       </c>
       <c r="H84" s="17">
@@ -5372,171 +5451,171 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" ref="A85:G85" si="31">A72</f>
+        <f t="shared" ref="A85:G85" si="29">A72</f>
         <v>.</v>
       </c>
       <c r="B85" t="str">
+        <f t="shared" si="29"/>
+        <v>DivNA - Div1</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="29"/>
+        <v>0.47077001424363502</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="29"/>
+        <v>0.954425378481357</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="29"/>
+        <v>3628</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="29"/>
+        <v>-2.2099744448077199</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="29"/>
+        <v>3.15151447329499</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" ref="H85:H89" si="30">IF(H72&lt;0.0001,"&lt;0.0001",IF(H72&lt;0.001,"&lt;0.001",IF(H72&lt;0.01,"&lt;0.01",ROUND(H72,3))))</f>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" ref="A86:G86" si="31">A73</f>
+        <v>.</v>
+      </c>
+      <c r="B86" t="str">
         <f t="shared" si="31"/>
-        <v>DivNA - Div1</v>
-      </c>
-      <c r="C85" s="6">
+        <v>DivNA - Div2</v>
+      </c>
+      <c r="C86" s="6">
         <f t="shared" si="31"/>
-        <v>0.47077001424363502</v>
-      </c>
-      <c r="D85" s="6">
+        <v>3.62940523906363</v>
+      </c>
+      <c r="D86" s="6">
         <f t="shared" si="31"/>
-        <v>0.954425378481357</v>
-      </c>
-      <c r="E85">
+        <v>0.96885037314604505</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="31"/>
         <v>3628</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <f t="shared" si="31"/>
-        <v>-2.2099744448077199</v>
-      </c>
-      <c r="G85" s="6">
+        <v>0.90814454334143901</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="31"/>
-        <v>3.15151447329499</v>
-      </c>
-      <c r="H85" s="16">
-        <f t="shared" ref="H85:H89" si="32">IF(H72&lt;0.0001,"&lt;0.0001",IF(H72&lt;0.001,"&lt;0.001",IF(H72&lt;0.01,"&lt;0.01",ROUND(H72,3))))</f>
-        <v>0.96099999999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f t="shared" ref="A86:G86" si="33">A73</f>
+        <v>6.3506659347858303</v>
+      </c>
+      <c r="H86" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" ref="A87:G87" si="32">A74</f>
         <v>.</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B87" t="str">
+        <f t="shared" si="32"/>
+        <v>Div0 - Div1</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="32"/>
+        <v>0.155482974639789</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="32"/>
+        <v>0.992242046116244</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="32"/>
+        <v>3628</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="32"/>
+        <v>-2.6314791358987</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="32"/>
+        <v>2.9424450851782802</v>
+      </c>
+      <c r="H87" s="16">
+        <f t="shared" si="30"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" ref="A88:G88" si="33">A75</f>
+        <v>.</v>
+      </c>
+      <c r="B88" t="str">
         <f t="shared" si="33"/>
-        <v>DivNA - Div2</v>
-      </c>
-      <c r="C86" s="6">
+        <v>Div0 - Div2</v>
+      </c>
+      <c r="C88" s="6">
         <f t="shared" si="33"/>
-        <v>3.62940523906363</v>
-      </c>
-      <c r="D86" s="6">
+        <v>3.3141181994597901</v>
+      </c>
+      <c r="D88" s="6">
         <f t="shared" si="33"/>
-        <v>0.96885037314604505</v>
-      </c>
-      <c r="E86">
+        <v>1.0018918939415</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="33"/>
         <v>3628</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F88" s="6">
         <f t="shared" si="33"/>
-        <v>0.90814454334143901</v>
-      </c>
-      <c r="G86" s="6">
+        <v>0.50005205682882403</v>
+      </c>
+      <c r="G88" s="6">
         <f t="shared" si="33"/>
-        <v>6.3506659347858303</v>
-      </c>
-      <c r="H86" s="16" t="str">
-        <f t="shared" si="32"/>
+        <v>6.1281843420907496</v>
+      </c>
+      <c r="H88" s="16" t="str">
+        <f t="shared" si="30"/>
         <v>&lt;0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f t="shared" ref="A87:G87" si="34">A74</f>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="str">
+        <f t="shared" ref="A89:G89" si="34">A76</f>
         <v>.</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B89" s="3" t="str">
         <f t="shared" si="34"/>
-        <v>Div0 - Div1</v>
-      </c>
-      <c r="C87" s="6">
+        <v>Div1 - Div2</v>
+      </c>
+      <c r="C89" s="7">
         <f t="shared" si="34"/>
-        <v>0.155482974639789</v>
-      </c>
-      <c r="D87" s="6">
+        <v>3.1586352248199998</v>
+      </c>
+      <c r="D89" s="7">
         <f t="shared" si="34"/>
-        <v>0.992242046116244</v>
-      </c>
-      <c r="E87">
+        <v>1.2126520362934201</v>
+      </c>
+      <c r="E89" s="3">
         <f t="shared" si="34"/>
         <v>3628</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F89" s="7">
         <f t="shared" si="34"/>
-        <v>-2.6314791358987</v>
-      </c>
-      <c r="G87" s="6">
+        <v>-0.247403948429437</v>
+      </c>
+      <c r="G89" s="7">
         <f t="shared" si="34"/>
-        <v>2.9424450851782802</v>
-      </c>
-      <c r="H87" s="16">
-        <f t="shared" si="32"/>
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f t="shared" ref="A88:G88" si="35">A75</f>
-        <v>.</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="35"/>
-        <v>Div0 - Div2</v>
-      </c>
-      <c r="C88" s="6">
-        <f t="shared" si="35"/>
-        <v>3.3141181994597901</v>
-      </c>
-      <c r="D88" s="6">
-        <f t="shared" si="35"/>
-        <v>1.0018918939415</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="35"/>
-        <v>3628</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="35"/>
-        <v>0.50005205682882403</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="35"/>
-        <v>6.1281843420907496</v>
-      </c>
-      <c r="H88" s="16" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;0.01</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="str">
-        <f t="shared" ref="A89:G89" si="36">A76</f>
-        <v>.</v>
-      </c>
-      <c r="B89" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>Div1 - Div2</v>
-      </c>
-      <c r="C89" s="7">
-        <f t="shared" si="36"/>
-        <v>3.1586352248199998</v>
-      </c>
-      <c r="D89" s="7">
-        <f t="shared" si="36"/>
-        <v>1.2126520362934201</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="36"/>
-        <v>3628</v>
-      </c>
-      <c r="F89" s="7">
-        <f t="shared" si="36"/>
-        <v>-0.247403948429437</v>
-      </c>
-      <c r="G89" s="7">
-        <f t="shared" si="36"/>
         <v>6.5646743980694398</v>
       </c>
       <c r="H89" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
@@ -5620,15 +5699,15 @@
         <v>(Intercept)</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" ref="L100:L106" si="37">C100</f>
+        <f t="shared" ref="L100:L106" si="35">C100</f>
         <v>883406.31762322597</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:M106" si="38">D100</f>
+        <f t="shared" ref="M100:M106" si="36">D100</f>
         <v>1</v>
       </c>
       <c r="N100" s="16" t="str">
-        <f t="shared" ref="N100:N105" si="39">IF(F100&lt;0.0001,"&lt;0.0001",IF(F100&lt;0.001,"&lt;0.001",IF(F100&lt;0.01,"&lt;0.01",ROUND(F100,3))))</f>
+        <f t="shared" ref="N100:N105" si="37">IF(F100&lt;0.0001,"&lt;0.0001",IF(F100&lt;0.001,"&lt;0.001",IF(F100&lt;0.01,"&lt;0.01",ROUND(F100,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -5649,19 +5728,19 @@
         <v>3.5192736613613301E-3</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" ref="K101:K106" si="40">B101</f>
+        <f t="shared" ref="K101:K106" si="38">B101</f>
         <v>DivGroup</v>
       </c>
       <c r="L101" s="2">
+        <f t="shared" si="35"/>
+        <v>3785.4030370819401</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="N101" s="16" t="str">
         <f t="shared" si="37"/>
-        <v>3785.4030370819401</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="N101" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.01</v>
       </c>
     </row>
@@ -5682,19 +5761,19 @@
         <v>4.60996433020566E-29</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>age_3</v>
       </c>
       <c r="L102" s="2">
+        <f t="shared" si="35"/>
+        <v>37011.016126057897</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="N102" s="16" t="str">
         <f t="shared" si="37"/>
-        <v>37011.016126057897</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="N102" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
@@ -5715,19 +5794,19 @@
         <v>2.01851273498637E-4</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>RIAGENDR</v>
       </c>
       <c r="L103" s="2">
+        <f t="shared" si="35"/>
+        <v>3848.94628909626</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="N103" s="16" t="str">
         <f t="shared" si="37"/>
-        <v>3848.94628909626</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="N103" s="16" t="str">
-        <f t="shared" si="39"/>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -5748,19 +5827,19 @@
         <v>0.248490345119216</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>eth_5</v>
       </c>
       <c r="L104" s="2">
+        <f t="shared" si="35"/>
+        <v>1146.72809623065</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="N104" s="16">
         <f t="shared" si="37"/>
-        <v>1146.72809623065</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="N104" s="16">
-        <f t="shared" si="39"/>
         <v>0.248</v>
       </c>
     </row>
@@ -5781,19 +5860,19 @@
         <v>0.135738656309978</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>FIPL</v>
       </c>
       <c r="L105" s="2">
+        <f t="shared" si="35"/>
+        <v>1111.02470325388</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="N105" s="16">
         <f t="shared" si="37"/>
-        <v>1111.02470325388</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="N105" s="16">
-        <f t="shared" si="39"/>
         <v>0.13600000000000001</v>
       </c>
     </row>
@@ -5814,19 +5893,19 @@
         <v>1.1475290466268601E-4</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>edu</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>5058.4675530463001</v>
       </c>
       <c r="M106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="N106" s="16" t="str">
-        <f t="shared" ref="N106:N107" si="41">IF(F106&lt;0.0001,"&lt;0.0001",IF(F106&lt;0.001,"&lt;0.001",IF(F106&lt;0.01,"&lt;0.01",ROUND(F106,3))))</f>
+        <f t="shared" ref="N106:N107" si="39">IF(F106&lt;0.0001,"&lt;0.0001",IF(F106&lt;0.001,"&lt;0.001",IF(F106&lt;0.01,"&lt;0.01",ROUND(F106,3))))</f>
         <v>&lt;0.001</v>
       </c>
     </row>
@@ -5847,19 +5926,19 @@
         <v>0.137643494935097</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" ref="K107:K108" si="42">B107</f>
+        <f t="shared" ref="K107:K108" si="40">B107</f>
         <v>KCAL</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" ref="L107:L108" si="43">C107</f>
+        <f t="shared" ref="L107:L108" si="41">C107</f>
         <v>613.04287801194005</v>
       </c>
       <c r="M107">
-        <f t="shared" ref="M107:M108" si="44">D107</f>
+        <f t="shared" ref="M107:M108" si="42">D107</f>
         <v>1</v>
       </c>
       <c r="N107" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0.13800000000000001</v>
       </c>
     </row>
@@ -5880,15 +5959,15 @@
         <v>26</v>
       </c>
       <c r="K108" t="str">
+        <f t="shared" si="40"/>
+        <v>Residuals</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="41"/>
+        <v>908782.68606344203</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="42"/>
-        <v>Residuals</v>
-      </c>
-      <c r="L108" s="2">
-        <f t="shared" si="43"/>
-        <v>908782.68606344203</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="44"/>
         <v>3269</v>
       </c>
     </row>
@@ -6178,7 +6257,7 @@
         <v>7.2049613932189898</v>
       </c>
       <c r="H118" s="29">
-        <f t="shared" ref="H118:H120" si="45">O118</f>
+        <f t="shared" ref="H118:H120" si="43">O118</f>
         <v>1.34054999281974E-3</v>
       </c>
       <c r="J118" t="s">
@@ -6224,7 +6303,7 @@
         <v>3.22298918633585</v>
       </c>
       <c r="H119" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.99980684539394704</v>
       </c>
       <c r="J119" t="s">
@@ -6270,7 +6349,7 @@
         <v>6.8180844159937903</v>
       </c>
       <c r="H120" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>8.6884097275874393E-3</v>
       </c>
       <c r="J120" t="s">
@@ -6383,159 +6462,159 @@
         <v>DivNA</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" ref="B125:G125" si="46">B112</f>
+        <f t="shared" ref="B125:G125" si="44">B112</f>
         <v>.</v>
       </c>
       <c r="C125" s="6">
+        <f t="shared" si="44"/>
+        <v>101.94206235659399</v>
+      </c>
+      <c r="D125" s="6">
+        <f t="shared" si="44"/>
+        <v>0.54442014560414198</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="44"/>
+        <v>3269</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="44"/>
+        <v>100.412818219477</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="44"/>
+        <v>103.47130649371201</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" ref="A126:G126" si="45">A113</f>
+        <v>Div0</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="45"/>
+        <v>.</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="45"/>
+        <v>101.46359524159701</v>
+      </c>
+      <c r="D126" s="6">
+        <f t="shared" si="45"/>
+        <v>0.63526221627756196</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="45"/>
+        <v>3269</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="45"/>
+        <v>99.679181076142996</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="45"/>
+        <v>103.248009407051</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" ref="A127:G127" si="46">A114</f>
+        <v>Div1</v>
+      </c>
+      <c r="B127" t="str">
         <f t="shared" si="46"/>
-        <v>101.94206235659399</v>
-      </c>
-      <c r="D125" s="6">
+        <v>.</v>
+      </c>
+      <c r="C127" s="6">
         <f t="shared" si="46"/>
-        <v>0.54442014560414198</v>
-      </c>
-      <c r="E125">
+        <v>101.37284683042201</v>
+      </c>
+      <c r="D127" s="6">
+        <f t="shared" si="46"/>
+        <v>1.05396763186137</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="46"/>
         <v>3269</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F127" s="6">
         <f t="shared" si="46"/>
-        <v>100.412818219477</v>
-      </c>
-      <c r="G125" s="6">
+        <v>98.412313803219305</v>
+      </c>
+      <c r="G127" s="6">
         <f t="shared" si="46"/>
-        <v>103.47130649371201</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f t="shared" ref="A126:G126" si="47">A113</f>
-        <v>Div0</v>
-      </c>
-      <c r="B126" t="str">
+        <v>104.333379857624</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" ref="A128:G128" si="47">A115</f>
+        <v>Div2</v>
+      </c>
+      <c r="B128" t="str">
         <f t="shared" si="47"/>
         <v>.</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C128" s="6">
         <f t="shared" si="47"/>
-        <v>101.46359524159701</v>
-      </c>
-      <c r="D126" s="6">
+        <v>97.854778601827405</v>
+      </c>
+      <c r="D128" s="6">
         <f t="shared" si="47"/>
-        <v>0.63526221627756196</v>
-      </c>
-      <c r="E126">
+        <v>1.08732296450413</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="47"/>
         <v>3269</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F128" s="6">
         <f t="shared" si="47"/>
-        <v>99.679181076142996</v>
-      </c>
-      <c r="G126" s="6">
+        <v>94.800552408974596</v>
+      </c>
+      <c r="G128" s="6">
         <f t="shared" si="47"/>
-        <v>103.248009407051</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f t="shared" ref="A127:G127" si="48">A114</f>
-        <v>Div1</v>
-      </c>
-      <c r="B127" t="str">
+        <v>100.90900479468</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="str">
+        <f t="shared" ref="A129:G129" si="48">A116</f>
+        <v>.</v>
+      </c>
+      <c r="B129" s="4" t="str">
         <f t="shared" si="48"/>
-        <v>.</v>
-      </c>
-      <c r="C127" s="6">
+        <v>DivNA - Div0</v>
+      </c>
+      <c r="C129" s="5">
         <f t="shared" si="48"/>
-        <v>101.37284683042201</v>
-      </c>
-      <c r="D127" s="6">
+        <v>0.47846711499718297</v>
+      </c>
+      <c r="D129" s="5">
         <f t="shared" si="48"/>
-        <v>1.05396763186137</v>
-      </c>
-      <c r="E127">
+        <v>0.67111802529290998</v>
+      </c>
+      <c r="E129" s="4">
         <f t="shared" si="48"/>
         <v>3269</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F129" s="5">
         <f t="shared" si="48"/>
-        <v>98.412313803219305</v>
-      </c>
-      <c r="G127" s="6">
+        <v>-1.4066639070262901</v>
+      </c>
+      <c r="G129" s="5">
         <f t="shared" si="48"/>
-        <v>104.333379857624</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f t="shared" ref="A128:G128" si="49">A115</f>
-        <v>Div2</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="49"/>
-        <v>.</v>
-      </c>
-      <c r="C128" s="6">
-        <f t="shared" si="49"/>
-        <v>97.854778601827405</v>
-      </c>
-      <c r="D128" s="6">
-        <f t="shared" si="49"/>
-        <v>1.08732296450413</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="49"/>
-        <v>3269</v>
-      </c>
-      <c r="F128" s="6">
-        <f t="shared" si="49"/>
-        <v>94.800552408974596</v>
-      </c>
-      <c r="G128" s="6">
-        <f t="shared" si="49"/>
-        <v>100.90900479468</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="str">
-        <f t="shared" ref="A129:G129" si="50">A116</f>
-        <v>.</v>
-      </c>
-      <c r="B129" s="4" t="str">
-        <f t="shared" si="50"/>
-        <v>DivNA - Div0</v>
-      </c>
-      <c r="C129" s="5">
-        <f t="shared" si="50"/>
-        <v>0.47846711499718297</v>
-      </c>
-      <c r="D129" s="5">
-        <f t="shared" si="50"/>
-        <v>0.67111802529290998</v>
-      </c>
-      <c r="E129" s="4">
-        <f t="shared" si="50"/>
-        <v>3269</v>
-      </c>
-      <c r="F129" s="5">
-        <f t="shared" si="50"/>
-        <v>-1.4066639070262901</v>
-      </c>
-      <c r="G129" s="5">
-        <f t="shared" si="50"/>
         <v>2.36359813702065</v>
       </c>
       <c r="H129" s="17">
@@ -6545,171 +6624,171 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:G130" si="51">A117</f>
+        <f t="shared" ref="A130:G130" si="49">A117</f>
         <v>.</v>
       </c>
       <c r="B130" t="str">
+        <f t="shared" si="49"/>
+        <v>DivNA - Div1</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" si="49"/>
+        <v>0.56921552617259497</v>
+      </c>
+      <c r="D130" s="6">
+        <f t="shared" si="49"/>
+        <v>1.0762757605867099</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="49"/>
+        <v>3269</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="49"/>
+        <v>-2.4539797212630399</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="49"/>
+        <v>3.59241077360823</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" ref="H130:H134" si="50">IF(H117&lt;0.0001,"&lt;0.0001",IF(H117&lt;0.001,"&lt;0.001",IF(H117&lt;0.01,"&lt;0.01",ROUND(H117,3))))</f>
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:G131" si="51">A118</f>
+        <v>.</v>
+      </c>
+      <c r="B131" t="str">
         <f t="shared" si="51"/>
-        <v>DivNA - Div1</v>
-      </c>
-      <c r="C130" s="6">
+        <v>DivNA - Div2</v>
+      </c>
+      <c r="C131" s="6">
         <f t="shared" si="51"/>
-        <v>0.56921552617259497</v>
-      </c>
-      <c r="D130" s="6">
+        <v>4.0872837547668199</v>
+      </c>
+      <c r="D131" s="6">
         <f t="shared" si="51"/>
-        <v>1.0762757605867099</v>
-      </c>
-      <c r="E130">
+        <v>1.10991206222473</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="51"/>
         <v>3269</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F131" s="6">
         <f t="shared" si="51"/>
-        <v>-2.4539797212630399</v>
-      </c>
-      <c r="G130" s="6">
+        <v>0.96960611631464999</v>
+      </c>
+      <c r="G131" s="6">
         <f t="shared" si="51"/>
-        <v>3.59241077360823</v>
-      </c>
-      <c r="H130" s="16">
-        <f t="shared" ref="H130:H134" si="52">IF(H117&lt;0.0001,"&lt;0.0001",IF(H117&lt;0.001,"&lt;0.001",IF(H117&lt;0.01,"&lt;0.01",ROUND(H117,3))))</f>
-        <v>0.95199999999999996</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f t="shared" ref="A131:G131" si="53">A118</f>
+        <v>7.2049613932189898</v>
+      </c>
+      <c r="H131" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;0.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" ref="A132:G132" si="52">A119</f>
         <v>.</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B132" t="str">
+        <f t="shared" si="52"/>
+        <v>Div0 - Div1</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" si="52"/>
+        <v>9.0748411175412699E-2</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" si="52"/>
+        <v>1.1150966268176099</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="52"/>
+        <v>3269</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="52"/>
+        <v>-3.0414923639850202</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="52"/>
+        <v>3.22298918633585</v>
+      </c>
+      <c r="H132" s="16">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" ref="A133:G133" si="53">A120</f>
+        <v>.</v>
+      </c>
+      <c r="B133" t="str">
         <f t="shared" si="53"/>
-        <v>DivNA - Div2</v>
-      </c>
-      <c r="C131" s="6">
+        <v>Div0 - Div2</v>
+      </c>
+      <c r="C133" s="6">
         <f t="shared" si="53"/>
-        <v>4.0872837547668199</v>
-      </c>
-      <c r="D131" s="6">
+        <v>3.60881663976964</v>
+      </c>
+      <c r="D133" s="6">
         <f t="shared" si="53"/>
-        <v>1.10991206222473</v>
-      </c>
-      <c r="E131">
+        <v>1.1425187042457501</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="53"/>
         <v>3269</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F133" s="6">
         <f t="shared" si="53"/>
-        <v>0.96960611631464999</v>
-      </c>
-      <c r="G131" s="6">
+        <v>0.39954886354548402</v>
+      </c>
+      <c r="G133" s="6">
         <f t="shared" si="53"/>
-        <v>7.2049613932189898</v>
-      </c>
-      <c r="H131" s="16" t="str">
-        <f t="shared" si="52"/>
+        <v>6.8180844159937903</v>
+      </c>
+      <c r="H133" s="16" t="str">
+        <f t="shared" si="50"/>
         <v>&lt;0.01</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f t="shared" ref="A132:G132" si="54">A119</f>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="str">
+        <f t="shared" ref="A134:G134" si="54">A121</f>
         <v>.</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B134" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>Div0 - Div1</v>
-      </c>
-      <c r="C132" s="6">
+        <v>Div1 - Div2</v>
+      </c>
+      <c r="C134" s="7">
         <f t="shared" si="54"/>
-        <v>9.0748411175412699E-2</v>
-      </c>
-      <c r="D132" s="6">
+        <v>3.51806822859422</v>
+      </c>
+      <c r="D134" s="7">
         <f t="shared" si="54"/>
-        <v>1.1150966268176099</v>
-      </c>
-      <c r="E132">
+        <v>1.4051139578593601</v>
+      </c>
+      <c r="E134" s="3">
         <f t="shared" si="54"/>
         <v>3269</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F134" s="7">
         <f t="shared" si="54"/>
-        <v>-3.0414923639850202</v>
-      </c>
-      <c r="G132" s="6">
+        <v>-0.42881415514561899</v>
+      </c>
+      <c r="G134" s="7">
         <f t="shared" si="54"/>
-        <v>3.22298918633585</v>
-      </c>
-      <c r="H132" s="16">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f t="shared" ref="A133:G133" si="55">A120</f>
-        <v>.</v>
-      </c>
-      <c r="B133" t="str">
-        <f t="shared" si="55"/>
-        <v>Div0 - Div2</v>
-      </c>
-      <c r="C133" s="6">
-        <f t="shared" si="55"/>
-        <v>3.60881663976964</v>
-      </c>
-      <c r="D133" s="6">
-        <f t="shared" si="55"/>
-        <v>1.1425187042457501</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="55"/>
-        <v>3269</v>
-      </c>
-      <c r="F133" s="6">
-        <f t="shared" si="55"/>
-        <v>0.39954886354548402</v>
-      </c>
-      <c r="G133" s="6">
-        <f t="shared" si="55"/>
-        <v>6.8180844159937903</v>
-      </c>
-      <c r="H133" s="16" t="str">
-        <f t="shared" si="52"/>
-        <v>&lt;0.01</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="str">
-        <f t="shared" ref="A134:G134" si="56">A121</f>
-        <v>.</v>
-      </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" si="56"/>
-        <v>Div1 - Div2</v>
-      </c>
-      <c r="C134" s="7">
-        <f t="shared" si="56"/>
-        <v>3.51806822859422</v>
-      </c>
-      <c r="D134" s="7">
-        <f t="shared" si="56"/>
-        <v>1.4051139578593601</v>
-      </c>
-      <c r="E134" s="3">
-        <f t="shared" si="56"/>
-        <v>3269</v>
-      </c>
-      <c r="F134" s="7">
-        <f t="shared" si="56"/>
-        <v>-0.42881415514561899</v>
-      </c>
-      <c r="G134" s="7">
-        <f t="shared" si="56"/>
         <v>7.4649506123340696</v>
       </c>
       <c r="H134" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6730,3547 +6809,3547 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
-    <col min="2" max="2" width="12.140625" style="39" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="39"/>
-    <col min="9" max="9" width="13.7109375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="39"/>
-    <col min="11" max="11" width="14.140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="39" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="2" max="2" width="12.140625" style="38" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="38"/>
+    <col min="9" max="9" width="13.7109375" style="38" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="38"/>
+    <col min="11" max="11" width="14.140625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>101.198423913043</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>100.790035906643</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>98.924099722991699</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="42">
         <v>95.770083102493103</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <f>B5-B8</f>
         <v>5.4283408105498978</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="10" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40" t="s">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>1008308.0160880201</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <v>1</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>3834.15627930758</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <v>0</v>
       </c>
-      <c r="K14" s="39" t="str">
+      <c r="K14" s="38" t="str">
         <f>B14</f>
         <v>(Intercept)</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="46">
         <f t="shared" ref="L14:M22" si="0">C14</f>
         <v>1008308.0160880201</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N14" s="49" t="str">
+      <c r="N14" s="48" t="str">
         <f t="shared" ref="N14:N21" si="1">IF(F14&lt;0.0001,"&lt;0.0001",IF(F14&lt;0.001,"&lt;0.001",IF(F14&lt;0.01,"&lt;0.01",ROUND(F14,3))))</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="T14" s="40" t="s">
+      <c r="T14" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <v>4187.58210485789</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>3</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>5.3078503679029598</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="49">
         <v>1.1937481191480301E-3</v>
       </c>
-      <c r="K15" s="39" t="str">
+      <c r="K15" s="38" t="str">
         <f t="shared" ref="K15:K22" si="2">B15</f>
         <v>DivGroup</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <f t="shared" si="0"/>
         <v>4187.58210485789</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N15" s="49" t="str">
+      <c r="N15" s="48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.01</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="46">
         <f>C39</f>
         <v>99.798510128853906</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="46">
         <v>37405.2101153029</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>2</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="38">
         <v>71.117862277258794</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="49">
         <v>4.99973173563461E-31</v>
       </c>
-      <c r="K16" s="39" t="str">
+      <c r="K16" s="38" t="str">
         <f t="shared" si="2"/>
         <v>age_3</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="46">
         <f t="shared" si="0"/>
         <v>37405.2101153029</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N16" s="49" t="str">
+      <c r="N16" s="48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="S16" s="39" t="s">
+      <c r="S16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="47">
+      <c r="T16" s="46">
         <f t="shared" ref="T16:T18" si="3">C40</f>
         <v>99.509154507296202</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <v>5236.4909760849596</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>1</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>19.912094753931701</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="49">
         <v>8.3525860451007999E-6</v>
       </c>
-      <c r="K17" s="39" t="str">
+      <c r="K17" s="38" t="str">
         <f t="shared" si="2"/>
         <v>RIAGENDR</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="46">
         <f t="shared" si="0"/>
         <v>5236.4909760849596</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N17" s="49" t="str">
+      <c r="N17" s="48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="47">
+      <c r="T17" s="46">
         <f t="shared" si="3"/>
         <v>99.313689514945693</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>33190.242842890701</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>4</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="38">
         <v>31.552009896126702</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="49">
         <v>7.0566002484209697E-26</v>
       </c>
-      <c r="K18" s="39" t="str">
+      <c r="K18" s="38" t="str">
         <f t="shared" si="2"/>
         <v>eth_5</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <f t="shared" si="0"/>
         <v>33190.242842890701</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N18" s="49" t="str">
+      <c r="N18" s="48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="S18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="46">
         <f t="shared" si="3"/>
         <v>95.9931171662043</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>723.88025343953598</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
         <v>2</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="38">
         <v>1.3763006813930101</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="49">
         <v>0.25264159914004702</v>
       </c>
-      <c r="K19" s="39" t="str">
+      <c r="K19" s="38" t="str">
         <f t="shared" si="2"/>
         <v>FIPL</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="46">
         <f t="shared" si="0"/>
         <v>723.88025343953598</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="50">
         <f t="shared" si="1"/>
         <v>0.253</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>4510.0691460237103</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <v>2</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <v>8.5749144410395193</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>1.92601543412196E-4</v>
       </c>
-      <c r="K20" s="39" t="str">
+      <c r="K20" s="38" t="str">
         <f t="shared" si="2"/>
         <v>edu</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <f t="shared" si="0"/>
         <v>4510.0691460237103</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N20" s="49" t="str">
+      <c r="N20" s="48" t="str">
         <f t="shared" si="1"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <v>792.72512546414498</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>1</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>3.0143884299913202</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>8.2612729269415694E-2</v>
       </c>
-      <c r="K21" s="39" t="str">
+      <c r="K21" s="38" t="str">
         <f t="shared" si="2"/>
         <v>KCAL</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="46">
         <f t="shared" si="0"/>
         <v>792.72512546414498</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <f t="shared" si="1"/>
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <v>962508.32518194197</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
         <v>3660</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="39" t="str">
+      <c r="K22" s="38" t="str">
         <f t="shared" si="2"/>
         <v>Residuals</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="46">
         <f t="shared" si="0"/>
         <v>962508.32518194197</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="38">
         <f t="shared" si="0"/>
         <v>3660</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="52"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="41">
+      <c r="B26" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="40">
         <v>99.798510128853906</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="40">
         <v>0.49185431285638298</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="38">
         <v>3660</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <v>98.417020599996107</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <v>101.179999657712</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="41">
+      <c r="B27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="40">
         <v>99.509154507296202</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="40">
         <v>0.57449438404560604</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="38">
         <v>3660</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <v>97.895550732354096</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <v>101.122758282238</v>
       </c>
-      <c r="H27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="39" t="s">
+      <c r="H27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="B28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="40">
         <v>99.313689514945693</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="40">
         <v>0.90963729868475696</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <v>3660</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="38">
         <v>96.758757352424595</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <v>101.868621677467</v>
       </c>
-      <c r="H28" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="H28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="41">
+      <c r="B29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="40">
         <v>95.9931171662043</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="40">
         <v>0.92149731517595501</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="38">
         <v>3660</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="38">
         <v>93.404873333608606</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="38">
         <v>98.581360998800093</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="39" t="s">
+      <c r="H29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="41"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="53">
         <v>0.28935562155768701</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="53">
         <v>0.624582127031578</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="52">
         <v>3660</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <v>-1.46493146275179</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="52">
         <v>2.04364270586716</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="54">
         <f>O30</f>
         <v>0.96702065911707002</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="38">
         <v>0.28935562155768701</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="38">
         <v>0.624582127031578</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="38">
         <v>3660</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="38">
         <v>0.46327874115273499</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="38">
         <v>0.96702065911707002</v>
       </c>
-      <c r="P30" s="41"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="40">
         <v>0.48482061390822501</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="40">
         <v>0.96291706291325097</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="38">
         <v>3660</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>-2.2197604069388901</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <v>3.18940163475534</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="55">
         <f>O31</f>
         <v>0.95826746634009297</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="38">
         <v>0.48482061390822501</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="38">
         <v>0.96291706291325097</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="38">
         <v>3660</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="38">
         <v>0.50349155974184101</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="38">
         <v>0.95826746634009297</v>
       </c>
-      <c r="P31" s="41"/>
+      <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="40">
         <v>3.80539296264954</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="40">
         <v>0.96782993854519705</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>3660</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="38">
         <v>1.0870129650227001</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="38">
         <v>6.5237729602763901</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="55">
         <f t="shared" ref="H32:H35" si="4">O32</f>
         <v>4.9778955030654903E-4</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="38">
         <v>3.80539296264954</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="38">
         <v>0.96782993854519705</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="38">
         <v>3660</v>
       </c>
-      <c r="N32" s="39">
+      <c r="N32" s="38">
         <v>3.9318818431775902</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="38">
         <v>4.9778955030654903E-4</v>
       </c>
-      <c r="P32" s="41"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="40">
         <v>0.19546499235053699</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="40">
         <v>0.99521557859631404</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>3660</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>-2.5998340725342</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>2.99076405723528</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="55">
         <f t="shared" si="4"/>
         <v>0.99731730083030001</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="38">
         <v>0.19546499235053699</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="38">
         <v>0.99521557859631404</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="38">
         <v>3660</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="38">
         <v>0.196404675081783</v>
       </c>
-      <c r="O33" s="39">
+      <c r="O33" s="38">
         <v>0.99731730083030001</v>
       </c>
-      <c r="P33" s="41"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="40">
         <v>3.5160373410918599</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="40">
         <v>0.99628082121936901</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>3660</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>0.71774628957412701</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>6.3143283926095899</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="55">
         <f t="shared" si="4"/>
         <v>2.3828340831859602E-3</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="38">
         <v>3.5160373410918599</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="38">
         <v>0.99628082121936901</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="38">
         <v>3660</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="38">
         <v>3.5291629289706701</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="38">
         <v>2.3828340831859602E-3</v>
       </c>
-      <c r="P34" s="41"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="42">
         <v>3.3205723487413201</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="42">
         <v>1.2099808653872599</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <v>3660</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <v>-7.7945976620814997E-2</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <v>6.71909067410345</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="56">
         <f t="shared" si="4"/>
         <v>3.0986456389395799E-2</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="38">
         <v>3.3205723487413201</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="38">
         <v>1.2099808653872599</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="38">
         <v>3660</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="38">
         <v>2.7443180662849098</v>
       </c>
-      <c r="O35" s="39">
+      <c r="O35" s="38">
         <v>3.0986456389395799E-2</v>
       </c>
-      <c r="P35" s="41"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="str">
+      <c r="A39" s="38" t="str">
         <f>A26</f>
         <v>DivNA</v>
       </c>
-      <c r="B39" s="39" t="str">
+      <c r="B39" s="38" t="str">
         <f t="shared" ref="B39:G39" si="5">B26</f>
         <v>.</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="40">
         <f t="shared" si="5"/>
         <v>99.798510128853906</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="40">
         <f t="shared" si="5"/>
         <v>0.49185431285638298</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="38">
         <f t="shared" si="5"/>
         <v>3660</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f t="shared" si="5"/>
         <v>98.417020599996107</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="40">
         <f t="shared" si="5"/>
         <v>101.179999657712</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="str">
+      <c r="A40" s="38" t="str">
         <f t="shared" ref="A40:G48" si="6">A27</f>
         <v>Div0</v>
       </c>
-      <c r="B40" s="39" t="str">
+      <c r="B40" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="40">
         <f t="shared" si="6"/>
         <v>99.509154507296202</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="40">
         <f t="shared" si="6"/>
         <v>0.57449438404560604</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <f t="shared" si="6"/>
         <v>97.895550732354096</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="40">
         <f t="shared" si="6"/>
         <v>101.122758282238</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="str">
+      <c r="A41" s="38" t="str">
         <f t="shared" si="6"/>
         <v>Div1</v>
       </c>
-      <c r="B41" s="39" t="str">
+      <c r="B41" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="40">
         <f t="shared" si="6"/>
         <v>99.313689514945693</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="40">
         <f t="shared" si="6"/>
         <v>0.90963729868475696</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <f t="shared" si="6"/>
         <v>96.758757352424595</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="40">
         <f t="shared" si="6"/>
         <v>101.868621677467</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="str">
+      <c r="A42" s="38" t="str">
         <f t="shared" si="6"/>
         <v>Div2</v>
       </c>
-      <c r="B42" s="39" t="str">
+      <c r="B42" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="40">
         <f t="shared" si="6"/>
         <v>95.9931171662043</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="40">
         <f t="shared" si="6"/>
         <v>0.92149731517595501</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f t="shared" si="6"/>
         <v>93.404873333608606</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="6"/>
         <v>98.581360998800093</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="str">
+      <c r="A43" s="52" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B43" s="53" t="str">
+      <c r="B43" s="52" t="str">
         <f t="shared" si="6"/>
         <v>DivNA - Div0</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="53">
         <f t="shared" si="6"/>
         <v>0.28935562155768701</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="53">
         <f t="shared" si="6"/>
         <v>0.624582127031578</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="52">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="53">
         <f t="shared" si="6"/>
         <v>-1.46493146275179</v>
       </c>
-      <c r="G43" s="54">
+      <c r="G43" s="53">
         <f t="shared" si="6"/>
         <v>2.04364270586716</v>
       </c>
-      <c r="H43" s="58">
+      <c r="H43" s="57">
         <f>IF(H30&lt;0.0001,"&lt;0.0001",IF(H30&lt;0.001,"&lt;0.001",IF(H30&lt;0.01,"&lt;0.01",ROUND(H30,3))))</f>
         <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="str">
+      <c r="A44" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B44" s="39" t="str">
+      <c r="B44" s="38" t="str">
         <f t="shared" si="6"/>
         <v>DivNA - Div1</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <f t="shared" si="6"/>
         <v>0.48482061390822501</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="40">
         <f t="shared" si="6"/>
         <v>0.96291706291325097</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <f t="shared" si="6"/>
         <v>-2.2197604069388901</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="40">
         <f t="shared" si="6"/>
         <v>3.18940163475534</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H44" s="48">
         <f t="shared" ref="H44:H48" si="7">IF(H31&lt;0.0001,"&lt;0.0001",IF(H31&lt;0.001,"&lt;0.001",IF(H31&lt;0.01,"&lt;0.01",ROUND(H31,3))))</f>
         <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="str">
+      <c r="A45" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B45" s="39" t="str">
+      <c r="B45" s="38" t="str">
         <f t="shared" si="6"/>
         <v>DivNA - Div2</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="40">
         <f t="shared" si="6"/>
         <v>3.80539296264954</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="40">
         <f t="shared" si="6"/>
         <v>0.96782993854519705</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <f t="shared" si="6"/>
         <v>1.0870129650227001</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="40">
         <f t="shared" si="6"/>
         <v>6.5237729602763901</v>
       </c>
-      <c r="H45" s="49" t="str">
+      <c r="H45" s="48" t="str">
         <f t="shared" si="7"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="str">
+      <c r="A46" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B46" s="39" t="str">
+      <c r="B46" s="38" t="str">
         <f t="shared" si="6"/>
         <v>Div0 - Div1</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="40">
         <f t="shared" si="6"/>
         <v>0.19546499235053699</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="40">
         <f t="shared" si="6"/>
         <v>0.99521557859631404</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <f t="shared" si="6"/>
         <v>-2.5998340725342</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="40">
         <f t="shared" si="6"/>
         <v>2.99076405723528</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="48">
         <f t="shared" si="7"/>
         <v>0.997</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="str">
+      <c r="A47" s="38" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B47" s="39" t="str">
+      <c r="B47" s="38" t="str">
         <f t="shared" si="6"/>
         <v>Div0 - Div2</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <f t="shared" si="6"/>
         <v>3.5160373410918599</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="40">
         <f t="shared" si="6"/>
         <v>0.99628082121936901</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="38">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <f t="shared" si="6"/>
         <v>0.71774628957412701</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="40">
         <f t="shared" si="6"/>
         <v>6.3143283926095899</v>
       </c>
-      <c r="H47" s="49" t="str">
+      <c r="H47" s="48" t="str">
         <f t="shared" si="7"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="str">
+      <c r="A48" s="41" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f t="shared" si="6"/>
         <v>Div1 - Div2</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="42">
         <f t="shared" si="6"/>
         <v>3.3205723487413201</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="42">
         <f t="shared" si="6"/>
         <v>1.2099808653872599</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <f t="shared" si="6"/>
         <v>3660</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="42">
         <f t="shared" si="6"/>
         <v>-7.7945976620814997E-2</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="42">
         <f t="shared" si="6"/>
         <v>6.71909067410345</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="58">
         <f t="shared" si="7"/>
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
+    <row r="52" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K53" s="45" t="s">
+      <c r="K53" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40" t="s">
+      <c r="B54" s="39"/>
+      <c r="C54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40" t="s">
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="40" t="s">
+      <c r="N54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="40" t="s">
+      <c r="O54" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="46">
         <v>2066708.1871185401</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="38">
         <v>1</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="38">
         <v>7853.1989457140398</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="47">
         <v>0</v>
       </c>
-      <c r="K55" s="39" t="str">
+      <c r="K55" s="38" t="str">
         <f>B55</f>
         <v>(Intercept)</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="M55" s="47">
+      <c r="M55" s="46">
         <f t="shared" ref="M55:N61" si="8">C55</f>
         <v>2066708.1871185401</v>
       </c>
-      <c r="N55" s="39">
+      <c r="N55" s="38">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O55" s="49" t="str">
+      <c r="O55" s="48" t="str">
         <f t="shared" ref="O55:O60" si="9">IF(F55&lt;0.0001,"&lt;0.0001",IF(F55&lt;0.001,"&lt;0.001",IF(F55&lt;0.01,"&lt;0.01",ROUND(F55,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="46">
         <v>3937.0837355768299</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="38">
         <v>3</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>4.9867872065234202</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="49">
         <v>1.87575215475017E-3</v>
       </c>
-      <c r="K56" s="39" t="str">
+      <c r="K56" s="38" t="str">
         <f t="shared" ref="K56:K61" si="10">B56</f>
         <v>DivGroup</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="46">
         <f t="shared" si="8"/>
         <v>3937.0837355768299</v>
       </c>
-      <c r="N56" s="39">
+      <c r="N56" s="38">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="O56" s="49" t="str">
+      <c r="O56" s="48" t="str">
         <f t="shared" si="9"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="46">
         <v>36248.631963860898</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="38">
         <v>2</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="38">
         <v>68.869838542387598</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="49">
         <v>4.3535776099358E-30</v>
       </c>
-      <c r="K57" s="39" t="str">
+      <c r="K57" s="38" t="str">
         <f t="shared" si="10"/>
         <v>age_3</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="47">
+      <c r="M57" s="46">
         <f t="shared" si="8"/>
         <v>36248.631963860898</v>
       </c>
-      <c r="N57" s="39">
+      <c r="N57" s="38">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="O57" s="49" t="str">
+      <c r="O57" s="48" t="str">
         <f t="shared" si="9"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="46">
         <v>7895.6789732949101</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="38">
         <v>1</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="38">
         <v>30.002463906250401</v>
       </c>
-      <c r="F58" s="50">
+      <c r="F58" s="49">
         <v>4.6053495899892202E-8</v>
       </c>
-      <c r="K58" s="39" t="str">
+      <c r="K58" s="38" t="str">
         <f t="shared" si="10"/>
         <v>RIAGENDR</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="M58" s="47">
+      <c r="M58" s="46">
         <f t="shared" si="8"/>
         <v>7895.6789732949101</v>
       </c>
-      <c r="N58" s="39">
+      <c r="N58" s="38">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O58" s="49" t="str">
+      <c r="O58" s="48" t="str">
         <f t="shared" si="9"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="46">
         <v>34810.075077851099</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="38">
         <v>4</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="38">
         <v>33.068341070776299</v>
       </c>
-      <c r="F59" s="50">
+      <c r="F59" s="49">
         <v>3.9394425467518198E-27</v>
       </c>
-      <c r="K59" s="39" t="str">
+      <c r="K59" s="38" t="str">
         <f t="shared" si="10"/>
         <v>eth_5</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="M59" s="47">
+      <c r="M59" s="46">
         <f t="shared" si="8"/>
         <v>34810.075077851099</v>
       </c>
-      <c r="N59" s="39">
+      <c r="N59" s="38">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="O59" s="49" t="str">
+      <c r="O59" s="48" t="str">
         <f t="shared" si="9"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="46">
         <v>5365.87679338013</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="38">
         <v>2</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="38">
         <v>10.194786627171601</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60" s="49">
         <v>3.8435941443731302E-5</v>
       </c>
-      <c r="K60" s="39" t="str">
+      <c r="K60" s="38" t="str">
         <f t="shared" si="10"/>
         <v>edu</v>
       </c>
-      <c r="L60" s="39" t="s">
+      <c r="L60" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="M60" s="47">
+      <c r="M60" s="46">
         <f t="shared" si="8"/>
         <v>5365.87679338013</v>
       </c>
-      <c r="N60" s="39">
+      <c r="N60" s="38">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="O60" s="49" t="str">
+      <c r="O60" s="48" t="str">
         <f t="shared" si="9"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="47">
+      <c r="C61" s="46">
         <v>963983.23049574695</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="38">
         <v>3663</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K61" s="40" t="str">
+      <c r="K61" s="39" t="str">
         <f t="shared" si="10"/>
         <v>Residuals</v>
       </c>
-      <c r="L61" s="40"/>
-      <c r="M61" s="61">
+      <c r="L61" s="39"/>
+      <c r="M61" s="60">
         <f t="shared" si="8"/>
         <v>963983.23049574695</v>
       </c>
-      <c r="N61" s="40">
+      <c r="N61" s="39">
         <f t="shared" si="8"/>
         <v>3663</v>
       </c>
-      <c r="O61" s="62"/>
+      <c r="O61" s="61"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="N62" s="49"/>
+      <c r="C62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="N62" s="48"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="L63" s="47"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="52"/>
+      <c r="H65" s="51"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E66" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F66" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H66" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="41">
+      <c r="B67" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="40">
         <v>99.875694368646606</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="40">
         <v>0.47991440164053001</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="38">
         <v>3663</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="38">
         <v>98.527741583082502</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G67" s="38">
         <v>101.22364715421099</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="H67" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="41">
+      <c r="B68" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="40">
         <v>99.643543747064697</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="40">
         <v>0.56638041650538695</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="38">
         <v>3663</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="38">
         <v>98.0527307656088</v>
       </c>
-      <c r="G68" s="39">
+      <c r="G68" s="38">
         <v>101.23435672852101</v>
       </c>
-      <c r="H68" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="39" t="s">
+      <c r="H68" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="41">
+      <c r="B69" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="40">
         <v>99.454416065287006</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="40">
         <v>0.90630709568125201</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="38">
         <v>3663</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="38">
         <v>96.908838833130702</v>
       </c>
-      <c r="G69" s="39">
+      <c r="G69" s="38">
         <v>101.999993297443</v>
       </c>
-      <c r="H69" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="H69" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="41">
+      <c r="B70" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="40">
         <v>96.230796288310302</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="40">
         <v>0.91135381831185103</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="38">
         <v>3663</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="38">
         <v>93.671044145368697</v>
       </c>
-      <c r="G70" s="39">
+      <c r="G70" s="38">
         <v>98.790548431252006</v>
       </c>
-      <c r="H70" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="39" t="s">
+      <c r="H70" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O70" s="39" t="s">
+      <c r="O70" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P70" s="41"/>
+      <c r="P70" s="40"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="53">
         <v>0.232150621581868</v>
       </c>
-      <c r="D71" s="54">
+      <c r="D71" s="53">
         <v>0.62281512915702997</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="52">
         <v>3663</v>
       </c>
-      <c r="F71" s="53">
+      <c r="F71" s="52">
         <v>-1.51717256057073</v>
       </c>
-      <c r="G71" s="53">
+      <c r="G71" s="52">
         <v>1.9814738037344699</v>
       </c>
-      <c r="H71" s="55">
+      <c r="H71" s="54">
         <f>O71</f>
         <v>0.98233525549451295</v>
       </c>
-      <c r="J71" s="39" t="s">
+      <c r="J71" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="39">
+      <c r="K71" s="38">
         <v>0.232150621581868</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="38">
         <v>0.62281512915702997</v>
       </c>
-      <c r="M71" s="39">
+      <c r="M71" s="38">
         <v>3663</v>
       </c>
-      <c r="N71" s="39">
+      <c r="N71" s="38">
         <v>0.37274403063406603</v>
       </c>
-      <c r="O71" s="39">
+      <c r="O71" s="38">
         <v>0.98233525549451295</v>
       </c>
-      <c r="P71" s="41"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="39" t="s">
+      <c r="A72" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="40">
         <v>0.42127830335959499</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="40">
         <v>0.95814814449029995</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="38">
         <v>3663</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="38">
         <v>-2.2699067411687301</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <v>3.1124633478879198</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="55">
         <f>O72</f>
         <v>0.97158549964948904</v>
       </c>
-      <c r="J72" s="39" t="s">
+      <c r="J72" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K72" s="39">
+      <c r="K72" s="38">
         <v>0.42127830335959499</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="38">
         <v>0.95814814449029995</v>
       </c>
-      <c r="M72" s="39">
+      <c r="M72" s="38">
         <v>3663</v>
       </c>
-      <c r="N72" s="39">
+      <c r="N72" s="38">
         <v>0.43967971527377903</v>
       </c>
-      <c r="O72" s="39">
+      <c r="O72" s="38">
         <v>0.97158549964948904</v>
       </c>
-      <c r="P72" s="41"/>
+      <c r="P72" s="40"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="39" t="s">
+      <c r="A73" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="41">
+      <c r="C73" s="40">
         <v>3.6448980803362598</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="40">
         <v>0.95828785078653</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="38">
         <v>3663</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="38">
         <v>0.95332063772501996</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="38">
         <v>6.3364755229474898</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="55">
         <f t="shared" ref="H73:H76" si="11">O73</f>
         <v>8.3466634764817204E-4</v>
       </c>
-      <c r="J73" s="39" t="s">
+      <c r="J73" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="39">
+      <c r="K73" s="38">
         <v>3.6448980803362598</v>
       </c>
-      <c r="L73" s="39">
+      <c r="L73" s="38">
         <v>0.95828785078653</v>
       </c>
-      <c r="M73" s="39">
+      <c r="M73" s="38">
         <v>3663</v>
       </c>
-      <c r="N73" s="39">
+      <c r="N73" s="38">
         <v>3.80355242670002</v>
       </c>
-      <c r="O73" s="39">
+      <c r="O73" s="38">
         <v>8.3466634764817204E-4</v>
       </c>
-      <c r="P73" s="41"/>
+      <c r="P73" s="40"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="39" t="s">
+      <c r="A74" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="41">
+      <c r="C74" s="40">
         <v>0.18912768177772701</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="40">
         <v>0.99410680226412196</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="38">
         <v>3663</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="38">
         <v>-2.60305573401364</v>
       </c>
-      <c r="G74" s="39">
+      <c r="G74" s="38">
         <v>2.98131109756909</v>
       </c>
-      <c r="H74" s="56">
+      <c r="H74" s="55">
         <f t="shared" si="11"/>
         <v>0.99755955298190102</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J74" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="39">
+      <c r="K74" s="38">
         <v>0.18912768177772701</v>
       </c>
-      <c r="L74" s="39">
+      <c r="L74" s="38">
         <v>0.99410680226412196</v>
       </c>
-      <c r="M74" s="39">
+      <c r="M74" s="38">
         <v>3663</v>
       </c>
-      <c r="N74" s="39">
+      <c r="N74" s="38">
         <v>0.190248855904597</v>
       </c>
-      <c r="O74" s="39">
+      <c r="O74" s="38">
         <v>0.99755955298190102</v>
       </c>
-      <c r="P74" s="41"/>
+      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="39" t="s">
+      <c r="A75" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75" s="40">
         <v>3.41274745875439</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="40">
         <v>0.99270945394559595</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="38">
         <v>3663</v>
       </c>
-      <c r="F75" s="39">
+      <c r="F75" s="38">
         <v>0.62448882528237404</v>
       </c>
-      <c r="G75" s="39">
+      <c r="G75" s="38">
         <v>6.2010060922264003</v>
       </c>
-      <c r="H75" s="56">
+      <c r="H75" s="55">
         <f t="shared" si="11"/>
         <v>3.3212930892874098E-3</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="J75" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="39">
+      <c r="K75" s="38">
         <v>3.41274745875439</v>
       </c>
-      <c r="L75" s="39">
+      <c r="L75" s="38">
         <v>0.99270945394559595</v>
       </c>
-      <c r="M75" s="39">
+      <c r="M75" s="38">
         <v>3663</v>
       </c>
-      <c r="N75" s="39">
+      <c r="N75" s="38">
         <v>3.4378109780159498</v>
       </c>
-      <c r="O75" s="39">
+      <c r="O75" s="38">
         <v>3.3212930892874098E-3</v>
       </c>
-      <c r="P75" s="41"/>
+      <c r="P75" s="40"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="42" t="s">
+      <c r="A76" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="42">
         <v>3.2236197769766601</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="42">
         <v>1.2090180008728699</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="41">
         <v>3663</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="41">
         <v>-0.172192427247186</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="41">
         <v>6.6194319812005098</v>
       </c>
-      <c r="H76" s="57">
+      <c r="H76" s="56">
         <f t="shared" si="11"/>
         <v>3.8555544950638801E-2</v>
       </c>
-      <c r="J76" s="39" t="s">
+      <c r="J76" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="39">
+      <c r="K76" s="38">
         <v>3.2236197769766601</v>
       </c>
-      <c r="L76" s="39">
+      <c r="L76" s="38">
         <v>1.2090180008728699</v>
       </c>
-      <c r="M76" s="39">
+      <c r="M76" s="38">
         <v>3663</v>
       </c>
-      <c r="N76" s="39">
+      <c r="N76" s="38">
         <v>2.6663124739659199</v>
       </c>
-      <c r="O76" s="39">
+      <c r="O76" s="38">
         <v>3.8555544950638801E-2</v>
       </c>
-      <c r="P76" s="41"/>
+      <c r="P76" s="40"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="40" t="s">
+      <c r="H79" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="str">
+      <c r="A80" s="38" t="str">
         <f>A67</f>
         <v>DivNA</v>
       </c>
-      <c r="B80" s="39" t="str">
+      <c r="B80" s="38" t="str">
         <f t="shared" ref="B80:G80" si="12">B67</f>
         <v>.</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="40">
         <f t="shared" si="12"/>
         <v>99.875694368646606</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="40">
         <f t="shared" si="12"/>
         <v>0.47991440164053001</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E80" s="38">
         <f t="shared" si="12"/>
         <v>3663</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="40">
         <f t="shared" si="12"/>
         <v>98.527741583082502</v>
       </c>
-      <c r="G80" s="41">
+      <c r="G80" s="40">
         <f t="shared" si="12"/>
         <v>101.22364715421099</v>
       </c>
-      <c r="H80" s="39" t="s">
+      <c r="H80" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="str">
+      <c r="A81" s="38" t="str">
         <f t="shared" ref="A81:G89" si="13">A68</f>
         <v>Div0</v>
       </c>
-      <c r="B81" s="39" t="str">
+      <c r="B81" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="C81" s="41">
+      <c r="C81" s="40">
         <f t="shared" si="13"/>
         <v>99.643543747064697</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81" s="40">
         <f t="shared" si="13"/>
         <v>0.56638041650538695</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E81" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="40">
         <f t="shared" si="13"/>
         <v>98.0527307656088</v>
       </c>
-      <c r="G81" s="41">
+      <c r="G81" s="40">
         <f t="shared" si="13"/>
         <v>101.23435672852101</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="str">
+      <c r="A82" s="38" t="str">
         <f t="shared" si="13"/>
         <v>Div1</v>
       </c>
-      <c r="B82" s="39" t="str">
+      <c r="B82" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="C82" s="41">
+      <c r="C82" s="40">
         <f t="shared" si="13"/>
         <v>99.454416065287006</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82" s="40">
         <f t="shared" si="13"/>
         <v>0.90630709568125201</v>
       </c>
-      <c r="E82" s="39">
+      <c r="E82" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F82" s="41">
+      <c r="F82" s="40">
         <f t="shared" si="13"/>
         <v>96.908838833130702</v>
       </c>
-      <c r="G82" s="41">
+      <c r="G82" s="40">
         <f t="shared" si="13"/>
         <v>101.999993297443</v>
       </c>
-      <c r="H82" s="39" t="s">
+      <c r="H82" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="str">
+      <c r="A83" s="38" t="str">
         <f t="shared" si="13"/>
         <v>Div2</v>
       </c>
-      <c r="B83" s="39" t="str">
+      <c r="B83" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83" s="40">
         <f t="shared" si="13"/>
         <v>96.230796288310302</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D83" s="40">
         <f t="shared" si="13"/>
         <v>0.91135381831185103</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F83" s="41">
+      <c r="F83" s="40">
         <f t="shared" si="13"/>
         <v>93.671044145368697</v>
       </c>
-      <c r="G83" s="41">
+      <c r="G83" s="40">
         <f t="shared" si="13"/>
         <v>98.790548431252006</v>
       </c>
-      <c r="H83" s="39" t="s">
+      <c r="H83" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="str">
+      <c r="A84" s="52" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B84" s="53" t="str">
+      <c r="B84" s="52" t="str">
         <f t="shared" si="13"/>
         <v>DivNA - Div0</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="53">
         <f t="shared" si="13"/>
         <v>0.232150621581868</v>
       </c>
-      <c r="D84" s="54">
+      <c r="D84" s="53">
         <f t="shared" si="13"/>
         <v>0.62281512915702997</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E84" s="52">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F84" s="54">
+      <c r="F84" s="53">
         <f t="shared" si="13"/>
         <v>-1.51717256057073</v>
       </c>
-      <c r="G84" s="54">
+      <c r="G84" s="53">
         <f t="shared" si="13"/>
         <v>1.9814738037344699</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="57">
         <f>IF(H71&lt;0.0001,"&lt;0.0001",IF(H71&lt;0.001,"&lt;0.001",IF(H71&lt;0.01,"&lt;0.01",ROUND(H71,3))))</f>
         <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="str">
+      <c r="A85" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B85" s="39" t="str">
+      <c r="B85" s="38" t="str">
         <f t="shared" si="13"/>
         <v>DivNA - Div1</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C85" s="40">
         <f t="shared" si="13"/>
         <v>0.42127830335959499</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D85" s="40">
         <f t="shared" si="13"/>
         <v>0.95814814449029995</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E85" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="40">
         <f t="shared" si="13"/>
         <v>-2.2699067411687301</v>
       </c>
-      <c r="G85" s="41">
+      <c r="G85" s="40">
         <f t="shared" si="13"/>
         <v>3.1124633478879198</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85" s="48">
         <f t="shared" ref="H85:H89" si="14">IF(H72&lt;0.0001,"&lt;0.0001",IF(H72&lt;0.001,"&lt;0.001",IF(H72&lt;0.01,"&lt;0.01",ROUND(H72,3))))</f>
         <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="str">
+      <c r="A86" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B86" s="39" t="str">
+      <c r="B86" s="38" t="str">
         <f t="shared" si="13"/>
         <v>DivNA - Div2</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C86" s="40">
         <f t="shared" si="13"/>
         <v>3.6448980803362598</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D86" s="40">
         <f t="shared" si="13"/>
         <v>0.95828785078653</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E86" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="40">
         <f t="shared" si="13"/>
         <v>0.95332063772501996</v>
       </c>
-      <c r="G86" s="41">
+      <c r="G86" s="40">
         <f t="shared" si="13"/>
         <v>6.3364755229474898</v>
       </c>
-      <c r="H86" s="49" t="str">
+      <c r="H86" s="48" t="str">
         <f t="shared" si="14"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="str">
+      <c r="A87" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B87" s="39" t="str">
+      <c r="B87" s="38" t="str">
         <f t="shared" si="13"/>
         <v>Div0 - Div1</v>
       </c>
-      <c r="C87" s="41">
+      <c r="C87" s="40">
         <f t="shared" si="13"/>
         <v>0.18912768177772701</v>
       </c>
-      <c r="D87" s="41">
+      <c r="D87" s="40">
         <f t="shared" si="13"/>
         <v>0.99410680226412196</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="40">
         <f t="shared" si="13"/>
         <v>-2.60305573401364</v>
       </c>
-      <c r="G87" s="41">
+      <c r="G87" s="40">
         <f t="shared" si="13"/>
         <v>2.98131109756909</v>
       </c>
-      <c r="H87" s="49">
+      <c r="H87" s="48">
         <f t="shared" si="14"/>
         <v>0.998</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="str">
+      <c r="A88" s="38" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B88" s="39" t="str">
+      <c r="B88" s="38" t="str">
         <f t="shared" si="13"/>
         <v>Div0 - Div2</v>
       </c>
-      <c r="C88" s="41">
+      <c r="C88" s="40">
         <f t="shared" si="13"/>
         <v>3.41274745875439</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D88" s="40">
         <f t="shared" si="13"/>
         <v>0.99270945394559595</v>
       </c>
-      <c r="E88" s="39">
+      <c r="E88" s="38">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="40">
         <f t="shared" si="13"/>
         <v>0.62448882528237404</v>
       </c>
-      <c r="G88" s="41">
+      <c r="G88" s="40">
         <f t="shared" si="13"/>
         <v>6.2010060922264003</v>
       </c>
-      <c r="H88" s="49" t="str">
+      <c r="H88" s="48" t="str">
         <f t="shared" si="14"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="42" t="str">
+      <c r="A89" s="41" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="B89" s="42" t="str">
+      <c r="B89" s="41" t="str">
         <f t="shared" si="13"/>
         <v>Div1 - Div2</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="42">
         <f t="shared" si="13"/>
         <v>3.2236197769766601</v>
       </c>
-      <c r="D89" s="43">
+      <c r="D89" s="42">
         <f t="shared" si="13"/>
         <v>1.2090180008728699</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E89" s="41">
         <f t="shared" si="13"/>
         <v>3663</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F89" s="42">
         <f t="shared" si="13"/>
         <v>-0.172192427247186</v>
       </c>
-      <c r="G89" s="43">
+      <c r="G89" s="42">
         <f t="shared" si="13"/>
         <v>6.6194319812005098</v>
       </c>
-      <c r="H89" s="59">
+      <c r="H89" s="58">
         <f t="shared" si="14"/>
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="63" t="s">
+    <row r="92" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="63" t="s">
+    <row r="93" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K98" s="45" t="s">
+      <c r="K98" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="46"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="40"/>
-      <c r="C99" s="40" t="s">
+      <c r="B99" s="39"/>
+      <c r="C99" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="40" t="s">
+      <c r="D99" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="40" t="s">
+      <c r="F99" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40" t="s">
+      <c r="K99" s="39"/>
+      <c r="L99" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M99" s="40" t="s">
+      <c r="M99" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N99" s="40" t="s">
+      <c r="N99" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="47">
+      <c r="C100" s="46">
         <v>920755.21766588895</v>
       </c>
-      <c r="D100" s="39">
+      <c r="D100" s="38">
         <v>1</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="38">
         <v>3310.1880444193198</v>
       </c>
-      <c r="F100" s="48">
+      <c r="F100" s="47">
         <v>0</v>
       </c>
-      <c r="K100" s="39" t="str">
+      <c r="K100" s="38" t="str">
         <f>B100</f>
         <v>(Intercept)</v>
       </c>
-      <c r="L100" s="47">
+      <c r="L100" s="46">
         <f t="shared" ref="L100:M108" si="15">C100</f>
         <v>920755.21766588895</v>
       </c>
-      <c r="M100" s="39">
+      <c r="M100" s="38">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="N100" s="49" t="str">
+      <c r="N100" s="48" t="str">
         <f t="shared" ref="N100:N107" si="16">IF(F100&lt;0.0001,"&lt;0.0001",IF(F100&lt;0.001,"&lt;0.001",IF(F100&lt;0.01,"&lt;0.01",ROUND(F100,3))))</f>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="47">
+      <c r="C101" s="46">
         <v>4526.2287410633899</v>
       </c>
-      <c r="D101" s="39">
+      <c r="D101" s="38">
         <v>3</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="38">
         <v>5.4240504524666697</v>
       </c>
-      <c r="F101" s="50">
+      <c r="F101" s="49">
         <v>1.0150592503845601E-3</v>
       </c>
-      <c r="K101" s="39" t="str">
+      <c r="K101" s="38" t="str">
         <f t="shared" ref="K101:K108" si="17">B101</f>
         <v>DivGroup</v>
       </c>
-      <c r="L101" s="47">
+      <c r="L101" s="46">
         <f t="shared" si="15"/>
         <v>4526.2287410633899</v>
       </c>
-      <c r="M101" s="39">
+      <c r="M101" s="38">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="N101" s="49" t="str">
+      <c r="N101" s="48" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="47">
+      <c r="C102" s="46">
         <v>37611.407876831698</v>
       </c>
-      <c r="D102" s="39">
+      <c r="D102" s="38">
         <v>2</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="38">
         <v>67.607997380278903</v>
       </c>
-      <c r="F102" s="50">
+      <c r="F102" s="49">
         <v>1.6755805863000299E-29</v>
       </c>
-      <c r="K102" s="39" t="str">
+      <c r="K102" s="38" t="str">
         <f t="shared" si="17"/>
         <v>age_3</v>
       </c>
-      <c r="L102" s="47">
+      <c r="L102" s="46">
         <f t="shared" si="15"/>
         <v>37611.407876831698</v>
       </c>
-      <c r="M102" s="39">
+      <c r="M102" s="38">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="N102" s="49" t="str">
+      <c r="N102" s="48" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="47">
+      <c r="C103" s="46">
         <v>4167.9773688247697</v>
       </c>
-      <c r="D103" s="39">
+      <c r="D103" s="38">
         <v>1</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="38">
         <v>14.9842092566891</v>
       </c>
-      <c r="F103" s="50">
+      <c r="F103" s="49">
         <v>1.10514756944281E-4</v>
       </c>
-      <c r="K103" s="39" t="str">
+      <c r="K103" s="38" t="str">
         <f t="shared" si="17"/>
         <v>RIAGENDR</v>
       </c>
-      <c r="L103" s="47">
+      <c r="L103" s="46">
         <f t="shared" si="15"/>
         <v>4167.9773688247697</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="38">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="N103" s="49" t="str">
+      <c r="N103" s="48" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="47">
+      <c r="C104" s="46">
         <v>1168.54471723083</v>
       </c>
-      <c r="D104" s="39">
+      <c r="D104" s="38">
         <v>3</v>
       </c>
-      <c r="E104" s="39">
+      <c r="E104" s="38">
         <v>1.40033698357329</v>
       </c>
-      <c r="F104" s="50">
+      <c r="F104" s="49">
         <v>0.24076463388167499</v>
       </c>
-      <c r="K104" s="39" t="str">
+      <c r="K104" s="38" t="str">
         <f t="shared" si="17"/>
         <v>eth_5</v>
       </c>
-      <c r="L104" s="47">
+      <c r="L104" s="46">
         <f t="shared" si="15"/>
         <v>1168.54471723083</v>
       </c>
-      <c r="M104" s="39">
+      <c r="M104" s="38">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="N104" s="49">
+      <c r="N104" s="48">
         <f t="shared" si="16"/>
         <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="47">
+      <c r="C105" s="46">
         <v>1064.00641045766</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="38">
         <v>2</v>
       </c>
-      <c r="E105" s="39">
+      <c r="E105" s="38">
         <v>1.9125937227979399</v>
       </c>
-      <c r="F105" s="50">
+      <c r="F105" s="49">
         <v>0.147860588586924</v>
       </c>
-      <c r="K105" s="39" t="str">
+      <c r="K105" s="38" t="str">
         <f t="shared" si="17"/>
         <v>FIPL</v>
       </c>
-      <c r="L105" s="47">
+      <c r="L105" s="46">
         <f t="shared" si="15"/>
         <v>1064.00641045766</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="38">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="N105" s="49">
+      <c r="N105" s="48">
         <f t="shared" si="16"/>
         <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C106" s="47">
+      <c r="C106" s="46">
         <v>5470.1298206425299</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D106" s="38">
         <v>2</v>
       </c>
-      <c r="E106" s="39">
+      <c r="E106" s="38">
         <v>9.8327753056963907</v>
       </c>
-      <c r="F106" s="50">
+      <c r="F106" s="49">
         <v>5.5253684273992701E-5</v>
       </c>
-      <c r="K106" s="39" t="str">
+      <c r="K106" s="38" t="str">
         <f t="shared" si="17"/>
         <v>edu</v>
       </c>
-      <c r="L106" s="47">
+      <c r="L106" s="46">
         <f t="shared" si="15"/>
         <v>5470.1298206425299</v>
       </c>
-      <c r="M106" s="39">
+      <c r="M106" s="38">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="N106" s="49" t="str">
+      <c r="N106" s="48" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="47">
+      <c r="C107" s="46">
         <v>621.42468625446804</v>
       </c>
-      <c r="D107" s="39">
+      <c r="D107" s="38">
         <v>1</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E107" s="38">
         <v>2.23407104025013</v>
       </c>
-      <c r="F107" s="39">
+      <c r="F107" s="38">
         <v>0.13509340782849699</v>
       </c>
-      <c r="K107" s="39" t="str">
+      <c r="K107" s="38" t="str">
         <f t="shared" si="17"/>
         <v>KCAL</v>
       </c>
-      <c r="L107" s="47">
+      <c r="L107" s="46">
         <f t="shared" si="15"/>
         <v>621.42468625446804</v>
       </c>
-      <c r="M107" s="39">
+      <c r="M107" s="38">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="N107" s="49">
+      <c r="N107" s="48">
         <f t="shared" si="16"/>
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="40">
+      <c r="C108" s="39">
         <v>917365.01585812296</v>
       </c>
-      <c r="D108" s="40">
+      <c r="D108" s="39">
         <v>3298</v>
       </c>
-      <c r="E108" s="40" t="s">
+      <c r="E108" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F108" s="40" t="s">
+      <c r="F108" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K108" s="39" t="str">
+      <c r="K108" s="38" t="str">
         <f t="shared" si="17"/>
         <v>Residuals</v>
       </c>
-      <c r="L108" s="47">
+      <c r="L108" s="46">
         <f t="shared" si="15"/>
         <v>917365.01585812296</v>
       </c>
-      <c r="M108" s="39">
+      <c r="M108" s="38">
         <f t="shared" si="15"/>
         <v>3298</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H110" s="52"/>
+      <c r="H110" s="51"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="40" t="s">
+      <c r="F111" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G111" s="40" t="s">
+      <c r="G111" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="40" t="s">
+      <c r="H111" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="41">
+      <c r="B112" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="40">
         <v>101.971435112492</v>
       </c>
-      <c r="D112" s="41">
+      <c r="D112" s="40">
         <v>0.53859177836507999</v>
       </c>
-      <c r="E112" s="39">
+      <c r="E112" s="38">
         <v>3298</v>
       </c>
-      <c r="F112" s="39">
+      <c r="F112" s="38">
         <v>100.458571554616</v>
       </c>
-      <c r="G112" s="39">
+      <c r="G112" s="38">
         <v>103.48429867036801</v>
       </c>
-      <c r="H112" s="39" t="s">
+      <c r="H112" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="41">
+      <c r="B113" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="40">
         <v>101.54276019474599</v>
       </c>
-      <c r="D113" s="41">
+      <c r="D113" s="40">
         <v>0.63207571683417796</v>
       </c>
-      <c r="E113" s="39">
+      <c r="E113" s="38">
         <v>3298</v>
       </c>
-      <c r="F113" s="39">
+      <c r="F113" s="38">
         <v>99.767307326305399</v>
       </c>
-      <c r="G113" s="39">
+      <c r="G113" s="38">
         <v>103.31821306318599</v>
       </c>
-      <c r="H113" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="39" t="s">
+      <c r="H113" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="41">
+      <c r="B114" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="40">
         <v>101.728981608846</v>
       </c>
-      <c r="D114" s="41">
+      <c r="D114" s="40">
         <v>1.06435875564474</v>
       </c>
-      <c r="E114" s="39">
+      <c r="E114" s="38">
         <v>3298</v>
       </c>
-      <c r="F114" s="39">
+      <c r="F114" s="38">
         <v>98.739278389072993</v>
       </c>
-      <c r="G114" s="39">
+      <c r="G114" s="38">
         <v>104.718684828618</v>
       </c>
-      <c r="H114" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
+      <c r="H114" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="41">
+      <c r="B115" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="40">
         <v>97.625671289901703</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D115" s="40">
         <v>1.0672485612059099</v>
       </c>
-      <c r="E115" s="39">
+      <c r="E115" s="38">
         <v>3298</v>
       </c>
-      <c r="F115" s="39">
+      <c r="F115" s="38">
         <v>94.627850824938207</v>
       </c>
-      <c r="G115" s="39">
+      <c r="G115" s="38">
         <v>100.623491754865</v>
       </c>
-      <c r="H115" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J115" s="39" t="s">
+      <c r="H115" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K115" s="39" t="s">
+      <c r="K115" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L115" s="39" t="s">
+      <c r="L115" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M115" s="39" t="s">
+      <c r="M115" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N115" s="39" t="s">
+      <c r="N115" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O115" s="39" t="s">
+      <c r="O115" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P115" s="41"/>
+      <c r="P115" s="40"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="53" t="s">
+      <c r="A116" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="53">
         <v>0.42867491774585398</v>
       </c>
-      <c r="D116" s="54">
+      <c r="D116" s="53">
         <v>0.66899302504341196</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="52">
         <v>3298</v>
       </c>
-      <c r="F116" s="53">
+      <c r="F116" s="52">
         <v>-1.4504758764486001</v>
       </c>
-      <c r="G116" s="53">
+      <c r="G116" s="52">
         <v>2.3078257119403101</v>
       </c>
-      <c r="H116" s="55">
+      <c r="H116" s="54">
         <f>O116</f>
         <v>0.91877220370825796</v>
       </c>
-      <c r="J116" s="39" t="s">
+      <c r="J116" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K116" s="39">
+      <c r="K116" s="38">
         <v>0.42867491774585398</v>
       </c>
-      <c r="L116" s="39">
+      <c r="L116" s="38">
         <v>0.66899302504341196</v>
       </c>
-      <c r="M116" s="39">
+      <c r="M116" s="38">
         <v>3298</v>
       </c>
-      <c r="N116" s="39">
+      <c r="N116" s="38">
         <v>0.64077636342776001</v>
       </c>
-      <c r="O116" s="39">
+      <c r="O116" s="38">
         <v>0.91877220370825796</v>
       </c>
-      <c r="P116" s="41"/>
+      <c r="P116" s="40"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="39" t="s">
+      <c r="A117" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="41">
+      <c r="C117" s="40">
         <v>0.242453503646164</v>
       </c>
-      <c r="D117" s="41">
+      <c r="D117" s="40">
         <v>1.0910212258448599</v>
       </c>
-      <c r="E117" s="39">
+      <c r="E117" s="38">
         <v>3298</v>
       </c>
-      <c r="F117" s="39">
+      <c r="F117" s="38">
         <v>-2.8221425777499598</v>
       </c>
-      <c r="G117" s="39">
+      <c r="G117" s="38">
         <v>3.3070495850422899</v>
       </c>
-      <c r="H117" s="56">
+      <c r="H117" s="55">
         <f>O117</f>
         <v>0.99612960124574601</v>
       </c>
-      <c r="J117" s="39" t="s">
+      <c r="J117" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K117" s="39">
+      <c r="K117" s="38">
         <v>0.242453503646164</v>
       </c>
-      <c r="L117" s="39">
+      <c r="L117" s="38">
         <v>1.0910212258448599</v>
       </c>
-      <c r="M117" s="39">
+      <c r="M117" s="38">
         <v>3298</v>
       </c>
-      <c r="N117" s="39">
+      <c r="N117" s="38">
         <v>0.222226202298139</v>
       </c>
-      <c r="O117" s="39">
+      <c r="O117" s="38">
         <v>0.99612960124574601</v>
       </c>
-      <c r="P117" s="41"/>
+      <c r="P117" s="40"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="39" t="s">
+      <c r="A118" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="41">
+      <c r="C118" s="40">
         <v>4.3457638225899302</v>
       </c>
-      <c r="D118" s="41">
+      <c r="D118" s="40">
         <v>1.0879384734967299</v>
       </c>
-      <c r="E118" s="39">
+      <c r="E118" s="38">
         <v>3298</v>
       </c>
-      <c r="F118" s="39">
+      <c r="F118" s="38">
         <v>1.2898269593118401</v>
       </c>
-      <c r="G118" s="39">
+      <c r="G118" s="38">
         <v>7.4017006858680201</v>
       </c>
-      <c r="H118" s="56">
+      <c r="H118" s="55">
         <f t="shared" ref="H118:H121" si="18">O118</f>
         <v>3.8530414795956398E-4</v>
       </c>
-      <c r="J118" s="39" t="s">
+      <c r="J118" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K118" s="39">
+      <c r="K118" s="38">
         <v>4.3457638225899302</v>
       </c>
-      <c r="L118" s="39">
+      <c r="L118" s="38">
         <v>1.0879384734967299</v>
       </c>
-      <c r="M118" s="39">
+      <c r="M118" s="38">
         <v>3298</v>
       </c>
-      <c r="N118" s="39">
+      <c r="N118" s="38">
         <v>3.9944941083131802</v>
       </c>
-      <c r="O118" s="39">
+      <c r="O118" s="38">
         <v>3.8530414795956398E-4</v>
       </c>
-      <c r="P118" s="41"/>
+      <c r="P118" s="40"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="39" t="s">
+      <c r="A119" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="41">
+      <c r="C119" s="40">
         <v>-0.18622141409969001</v>
       </c>
-      <c r="D119" s="41">
+      <c r="D119" s="40">
         <v>1.1281408740800101</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E119" s="38">
         <v>3298</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="38">
         <v>-3.3550837790744401</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="38">
         <v>2.98264095087506</v>
       </c>
-      <c r="H119" s="56">
+      <c r="H119" s="55">
         <f t="shared" si="18"/>
         <v>0.99840056702322899</v>
       </c>
-      <c r="J119" s="39" t="s">
+      <c r="J119" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K119" s="39">
+      <c r="K119" s="38">
         <v>-0.18622141409969001</v>
       </c>
-      <c r="L119" s="39">
+      <c r="L119" s="38">
         <v>1.1281408740800101</v>
       </c>
-      <c r="M119" s="39">
+      <c r="M119" s="38">
         <v>3298</v>
       </c>
-      <c r="N119" s="39">
+      <c r="N119" s="38">
         <v>-0.16506929088226899</v>
       </c>
-      <c r="O119" s="39">
+      <c r="O119" s="38">
         <v>0.99840056702322899</v>
       </c>
-      <c r="P119" s="41"/>
+      <c r="P119" s="40"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="39" t="s">
+      <c r="A120" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="41">
+      <c r="C120" s="40">
         <v>3.91708890484407</v>
       </c>
-      <c r="D120" s="41">
+      <c r="D120" s="40">
         <v>1.1220100515207201</v>
       </c>
-      <c r="E120" s="39">
+      <c r="E120" s="38">
         <v>3298</v>
       </c>
-      <c r="F120" s="39">
+      <c r="F120" s="38">
         <v>0.76544755660653496</v>
       </c>
-      <c r="G120" s="39">
+      <c r="G120" s="38">
         <v>7.0687302530816103</v>
       </c>
-      <c r="H120" s="56">
+      <c r="H120" s="55">
         <f t="shared" si="18"/>
         <v>2.7422707552082798E-3</v>
       </c>
-      <c r="J120" s="39" t="s">
+      <c r="J120" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K120" s="39">
+      <c r="K120" s="38">
         <v>3.91708890484407</v>
       </c>
-      <c r="L120" s="39">
+      <c r="L120" s="38">
         <v>1.1220100515207201</v>
       </c>
-      <c r="M120" s="39">
+      <c r="M120" s="38">
         <v>3298</v>
       </c>
-      <c r="N120" s="39">
+      <c r="N120" s="38">
         <v>3.49113530626131</v>
       </c>
-      <c r="O120" s="39">
+      <c r="O120" s="38">
         <v>2.7422707552082798E-3</v>
       </c>
-      <c r="P120" s="41"/>
+      <c r="P120" s="40"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="42" t="s">
+      <c r="A121" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="43">
+      <c r="C121" s="42">
         <v>4.1033103189437599</v>
       </c>
-      <c r="D121" s="43">
+      <c r="D121" s="42">
         <v>1.40095861537606</v>
       </c>
-      <c r="E121" s="42">
+      <c r="E121" s="41">
         <v>3298</v>
       </c>
-      <c r="F121" s="42">
+      <c r="F121" s="41">
         <v>0.16812355889248201</v>
       </c>
-      <c r="G121" s="42">
+      <c r="G121" s="41">
         <v>8.0384970789950501</v>
       </c>
-      <c r="H121" s="57">
+      <c r="H121" s="56">
         <f t="shared" si="18"/>
         <v>1.7996742661638199E-2</v>
       </c>
-      <c r="J121" s="39" t="s">
+      <c r="J121" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="39">
+      <c r="K121" s="38">
         <v>4.1033103189437599</v>
       </c>
-      <c r="L121" s="39">
+      <c r="L121" s="38">
         <v>1.40095861537606</v>
       </c>
-      <c r="M121" s="39">
+      <c r="M121" s="38">
         <v>3298</v>
       </c>
-      <c r="N121" s="39">
+      <c r="N121" s="38">
         <v>2.9289304294276399</v>
       </c>
-      <c r="O121" s="39">
+      <c r="O121" s="38">
         <v>1.7996742661638199E-2</v>
       </c>
-      <c r="P121" s="41"/>
+      <c r="P121" s="40"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="40" t="s">
+      <c r="C124" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="40" t="s">
+      <c r="D124" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="40" t="s">
+      <c r="F124" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G124" s="40" t="s">
+      <c r="G124" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="40" t="s">
+      <c r="H124" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="str">
+      <c r="A125" s="38" t="str">
         <f>A112</f>
         <v>DivNA</v>
       </c>
-      <c r="B125" s="39" t="str">
+      <c r="B125" s="38" t="str">
         <f t="shared" ref="B125:G125" si="19">B112</f>
         <v>.</v>
       </c>
-      <c r="C125" s="41">
+      <c r="C125" s="40">
         <f t="shared" si="19"/>
         <v>101.971435112492</v>
       </c>
-      <c r="D125" s="41">
+      <c r="D125" s="40">
         <f t="shared" si="19"/>
         <v>0.53859177836507999</v>
       </c>
-      <c r="E125" s="39">
+      <c r="E125" s="38">
         <f t="shared" si="19"/>
         <v>3298</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F125" s="40">
         <f t="shared" si="19"/>
         <v>100.458571554616</v>
       </c>
-      <c r="G125" s="41">
+      <c r="G125" s="40">
         <f t="shared" si="19"/>
         <v>103.48429867036801</v>
       </c>
-      <c r="H125" s="39" t="s">
+      <c r="H125" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="str">
+      <c r="A126" s="38" t="str">
         <f t="shared" ref="A126:G134" si="20">A113</f>
         <v>Div0</v>
       </c>
-      <c r="B126" s="39" t="str">
+      <c r="B126" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="C126" s="41">
+      <c r="C126" s="40">
         <f t="shared" si="20"/>
         <v>101.54276019474599</v>
       </c>
-      <c r="D126" s="41">
+      <c r="D126" s="40">
         <f t="shared" si="20"/>
         <v>0.63207571683417796</v>
       </c>
-      <c r="E126" s="39">
+      <c r="E126" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F126" s="41">
+      <c r="F126" s="40">
         <f t="shared" si="20"/>
         <v>99.767307326305399</v>
       </c>
-      <c r="G126" s="41">
+      <c r="G126" s="40">
         <f t="shared" si="20"/>
         <v>103.31821306318599</v>
       </c>
-      <c r="H126" s="39" t="s">
+      <c r="H126" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="str">
+      <c r="A127" s="38" t="str">
         <f t="shared" si="20"/>
         <v>Div1</v>
       </c>
-      <c r="B127" s="39" t="str">
+      <c r="B127" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="C127" s="41">
+      <c r="C127" s="40">
         <f t="shared" si="20"/>
         <v>101.728981608846</v>
       </c>
-      <c r="D127" s="41">
+      <c r="D127" s="40">
         <f t="shared" si="20"/>
         <v>1.06435875564474</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E127" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F127" s="41">
+      <c r="F127" s="40">
         <f t="shared" si="20"/>
         <v>98.739278389072993</v>
       </c>
-      <c r="G127" s="41">
+      <c r="G127" s="40">
         <f t="shared" si="20"/>
         <v>104.718684828618</v>
       </c>
-      <c r="H127" s="39" t="s">
+      <c r="H127" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="str">
+      <c r="A128" s="38" t="str">
         <f t="shared" si="20"/>
         <v>Div2</v>
       </c>
-      <c r="B128" s="39" t="str">
+      <c r="B128" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="C128" s="41">
+      <c r="C128" s="40">
         <f t="shared" si="20"/>
         <v>97.625671289901703</v>
       </c>
-      <c r="D128" s="41">
+      <c r="D128" s="40">
         <f t="shared" si="20"/>
         <v>1.0672485612059099</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F128" s="41">
+      <c r="F128" s="40">
         <f t="shared" si="20"/>
         <v>94.627850824938207</v>
       </c>
-      <c r="G128" s="41">
+      <c r="G128" s="40">
         <f t="shared" si="20"/>
         <v>100.623491754865</v>
       </c>
-      <c r="H128" s="39" t="s">
+      <c r="H128" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="53" t="str">
+      <c r="A129" s="52" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B129" s="53" t="str">
+      <c r="B129" s="52" t="str">
         <f t="shared" si="20"/>
         <v>DivNA - Div0</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C129" s="53">
         <f t="shared" si="20"/>
         <v>0.42867491774585398</v>
       </c>
-      <c r="D129" s="54">
+      <c r="D129" s="53">
         <f t="shared" si="20"/>
         <v>0.66899302504341196</v>
       </c>
-      <c r="E129" s="53">
+      <c r="E129" s="52">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F129" s="54">
+      <c r="F129" s="53">
         <f t="shared" si="20"/>
         <v>-1.4504758764486001</v>
       </c>
-      <c r="G129" s="54">
+      <c r="G129" s="53">
         <f t="shared" si="20"/>
         <v>2.3078257119403101</v>
       </c>
-      <c r="H129" s="58">
+      <c r="H129" s="57">
         <f>IF(H116&lt;0.0001,"&lt;0.0001",IF(H116&lt;0.001,"&lt;0.001",IF(H116&lt;0.01,"&lt;0.01",ROUND(H116,3))))</f>
         <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="str">
+      <c r="A130" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B130" s="39" t="str">
+      <c r="B130" s="38" t="str">
         <f t="shared" si="20"/>
         <v>DivNA - Div1</v>
       </c>
-      <c r="C130" s="41">
+      <c r="C130" s="40">
         <f t="shared" si="20"/>
         <v>0.242453503646164</v>
       </c>
-      <c r="D130" s="41">
+      <c r="D130" s="40">
         <f t="shared" si="20"/>
         <v>1.0910212258448599</v>
       </c>
-      <c r="E130" s="39">
+      <c r="E130" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F130" s="41">
+      <c r="F130" s="40">
         <f t="shared" si="20"/>
         <v>-2.8221425777499598</v>
       </c>
-      <c r="G130" s="41">
+      <c r="G130" s="40">
         <f t="shared" si="20"/>
         <v>3.3070495850422899</v>
       </c>
-      <c r="H130" s="49">
+      <c r="H130" s="48">
         <f t="shared" ref="H130:H134" si="21">IF(H117&lt;0.0001,"&lt;0.0001",IF(H117&lt;0.001,"&lt;0.001",IF(H117&lt;0.01,"&lt;0.01",ROUND(H117,3))))</f>
         <v>0.996</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="str">
+      <c r="A131" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B131" s="39" t="str">
+      <c r="B131" s="38" t="str">
         <f t="shared" si="20"/>
         <v>DivNA - Div2</v>
       </c>
-      <c r="C131" s="41">
+      <c r="C131" s="40">
         <f t="shared" si="20"/>
         <v>4.3457638225899302</v>
       </c>
-      <c r="D131" s="41">
+      <c r="D131" s="40">
         <f t="shared" si="20"/>
         <v>1.0879384734967299</v>
       </c>
-      <c r="E131" s="39">
+      <c r="E131" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F131" s="40">
         <f t="shared" si="20"/>
         <v>1.2898269593118401</v>
       </c>
-      <c r="G131" s="41">
+      <c r="G131" s="40">
         <f t="shared" si="20"/>
         <v>7.4017006858680201</v>
       </c>
-      <c r="H131" s="49" t="str">
+      <c r="H131" s="48" t="str">
         <f t="shared" si="21"/>
         <v>&lt;0.001</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="str">
+      <c r="A132" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B132" s="39" t="str">
+      <c r="B132" s="38" t="str">
         <f t="shared" si="20"/>
         <v>Div0 - Div1</v>
       </c>
-      <c r="C132" s="41">
+      <c r="C132" s="40">
         <f t="shared" si="20"/>
         <v>-0.18622141409969001</v>
       </c>
-      <c r="D132" s="41">
+      <c r="D132" s="40">
         <f t="shared" si="20"/>
         <v>1.1281408740800101</v>
       </c>
-      <c r="E132" s="39">
+      <c r="E132" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F132" s="41">
+      <c r="F132" s="40">
         <f t="shared" si="20"/>
         <v>-3.3550837790744401</v>
       </c>
-      <c r="G132" s="41">
+      <c r="G132" s="40">
         <f t="shared" si="20"/>
         <v>2.98264095087506</v>
       </c>
-      <c r="H132" s="49">
+      <c r="H132" s="48">
         <f t="shared" si="21"/>
         <v>0.998</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="str">
+      <c r="A133" s="38" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B133" s="39" t="str">
+      <c r="B133" s="38" t="str">
         <f t="shared" si="20"/>
         <v>Div0 - Div2</v>
       </c>
-      <c r="C133" s="41">
+      <c r="C133" s="40">
         <f t="shared" si="20"/>
         <v>3.91708890484407</v>
       </c>
-      <c r="D133" s="41">
+      <c r="D133" s="40">
         <f t="shared" si="20"/>
         <v>1.1220100515207201</v>
       </c>
-      <c r="E133" s="39">
+      <c r="E133" s="38">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F133" s="41">
+      <c r="F133" s="40">
         <f t="shared" si="20"/>
         <v>0.76544755660653496</v>
       </c>
-      <c r="G133" s="41">
+      <c r="G133" s="40">
         <f t="shared" si="20"/>
         <v>7.0687302530816103</v>
       </c>
-      <c r="H133" s="49" t="str">
+      <c r="H133" s="48" t="str">
         <f t="shared" si="21"/>
         <v>&lt;0.01</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="str">
+      <c r="A134" s="41" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="B134" s="42" t="str">
+      <c r="B134" s="41" t="str">
         <f t="shared" si="20"/>
         <v>Div1 - Div2</v>
       </c>
-      <c r="C134" s="43">
+      <c r="C134" s="42">
         <f t="shared" si="20"/>
         <v>4.1033103189437599</v>
       </c>
-      <c r="D134" s="43">
+      <c r="D134" s="42">
         <f t="shared" si="20"/>
         <v>1.40095861537606</v>
       </c>
-      <c r="E134" s="42">
+      <c r="E134" s="41">
         <f t="shared" si="20"/>
         <v>3298</v>
       </c>
-      <c r="F134" s="43">
+      <c r="F134" s="42">
         <f t="shared" si="20"/>
         <v>0.16812355889248201</v>
       </c>
-      <c r="G134" s="43">
+      <c r="G134" s="42">
         <f t="shared" si="20"/>
         <v>8.0384970789950501</v>
       </c>
-      <c r="H134" s="59">
+      <c r="H134" s="58">
         <f t="shared" si="21"/>
         <v>1.7999999999999999E-2</v>
       </c>
